--- a/Biopharma.xlsx
+++ b/Biopharma.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803D3465-5000-4BCF-80F7-0B303EC90A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5238C581-CA6D-4EEF-B19B-2FCEFB0CD2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15915" yWindow="195" windowWidth="25875" windowHeight="20685" activeTab="3" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
+    <workbookView xWindow="8655" yWindow="5085" windowWidth="38700" windowHeight="15345" xr2:uid="{17641224-F2C3-441B-B85B-BB32567FE633}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="China" sheetId="5" r:id="rId2"/>
-    <sheet name="FX" sheetId="2" r:id="rId3"/>
-    <sheet name="Private" sheetId="3" r:id="rId4"/>
-    <sheet name="Acquisitions" sheetId="4" r:id="rId5"/>
+    <sheet name="Launches" sheetId="6" r:id="rId2"/>
+    <sheet name="China" sheetId="5" r:id="rId3"/>
+    <sheet name="FX" sheetId="2" r:id="rId4"/>
+    <sheet name="Private" sheetId="3" r:id="rId5"/>
+    <sheet name="Acquisitions" sheetId="4" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
@@ -102,6 +102,8 @@
     <externalReference r:id="rId85"/>
     <externalReference r:id="rId86"/>
     <externalReference r:id="rId87"/>
+    <externalReference r:id="rId88"/>
+    <externalReference r:id="rId89"/>
   </externalReferences>
   <definedNames>
     <definedName name="AUD">FX!$C$5</definedName>
@@ -135,6 +137,64 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Martin</author>
+  </authors>
+  <commentList>
+    <comment ref="AE4" authorId="0" shapeId="0" xr:uid="{B2BE9396-5825-4BE7-B3C2-AD4180B21E1E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+905 consensus</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG8" authorId="0" shapeId="0" xr:uid="{E932D832-A0D4-461F-9F84-E6D0EDCD4316}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+506m consensus</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -158,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="674">
   <si>
     <t>Exarta</t>
   </si>
@@ -2051,6 +2111,135 @@
   </si>
   <si>
     <t>Cambridge, MA</t>
+  </si>
+  <si>
+    <t>Antiverse</t>
+  </si>
+  <si>
+    <t>GPCR antibodies</t>
+  </si>
+  <si>
+    <t>Radiopharma</t>
+  </si>
+  <si>
+    <t>Series D</t>
+  </si>
+  <si>
+    <t>160m</t>
+  </si>
+  <si>
+    <t>108m</t>
+  </si>
+  <si>
+    <t>105m</t>
+  </si>
+  <si>
+    <t>venBio, Versant</t>
+  </si>
+  <si>
+    <t>Venrock</t>
+  </si>
+  <si>
+    <t>Sofinnova, Viking, Wellington</t>
+  </si>
+  <si>
+    <t>Ensoma</t>
+  </si>
+  <si>
+    <t>70m</t>
+  </si>
+  <si>
+    <t>85m</t>
+  </si>
+  <si>
+    <t>Catalio, Solasta, QIA, 5AM, Cormorant</t>
+  </si>
+  <si>
+    <t>SetPoint Medical</t>
+  </si>
+  <si>
+    <t>42m</t>
+  </si>
+  <si>
+    <t>Syndax</t>
+  </si>
+  <si>
+    <t>SNDX</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Mounjaro</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>US launch 6/2022. First reported quarter Q222</t>
+  </si>
+  <si>
+    <t>Emgality</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Verzenio</t>
+  </si>
+  <si>
+    <t>Olumiant</t>
+  </si>
+  <si>
+    <t>Tyvyt</t>
+  </si>
+  <si>
+    <t>Retevmo</t>
+  </si>
+  <si>
+    <t>Taltz</t>
+  </si>
+  <si>
+    <t>Basaglar</t>
+  </si>
+  <si>
+    <t>Trulicity</t>
+  </si>
+  <si>
+    <t>Jardiance</t>
+  </si>
+  <si>
+    <t>Cyramza</t>
+  </si>
+  <si>
+    <t>Effient</t>
+  </si>
+  <si>
+    <t>Byetta</t>
+  </si>
+  <si>
+    <t>Alimta</t>
+  </si>
+  <si>
+    <t>Cymbalta</t>
+  </si>
+  <si>
+    <t>Q123</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2259,7 @@
     <numFmt numFmtId="173" formatCode="[$£-809]#,##0"/>
     <numFmt numFmtId="174" formatCode="[$€-2]\ #,##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -2097,6 +2286,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2119,7 +2326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2182,6 +2389,21 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3037,44 +3259,44 @@
         </row>
       </sheetData>
       <sheetData sheetId="2">
-        <row r="66">
-          <cell r="DC66">
+        <row r="69">
+          <cell r="DG69">
             <v>8.9161656552021782</v>
           </cell>
-          <cell r="DD66">
-            <v>7.661569366735332</v>
-          </cell>
-          <cell r="DE66">
-            <v>14.26483196973442</v>
-          </cell>
-          <cell r="DF66">
-            <v>15.366941953713443</v>
-          </cell>
-          <cell r="DG66">
-            <v>16.675423197617725</v>
-          </cell>
-          <cell r="DH66">
-            <v>17.471873185212473</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="DM79">
+          <cell r="DH69">
+            <v>6.0130006011405053</v>
+          </cell>
+          <cell r="DI69">
+            <v>13.733880815841767</v>
+          </cell>
+          <cell r="DJ69">
+            <v>14.97316744833215</v>
+          </cell>
+          <cell r="DK69">
+            <v>16.373168386234905</v>
+          </cell>
+          <cell r="DL69">
+            <v>17.232938955680762</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="DQ82">
             <v>0.01</v>
           </cell>
         </row>
-        <row r="80">
-          <cell r="DM80">
+        <row r="83">
+          <cell r="DQ83">
             <v>-0.01</v>
           </cell>
         </row>
-        <row r="81">
-          <cell r="DM81">
+        <row r="84">
+          <cell r="DQ84">
             <v>7.0000000000000007E-2</v>
           </cell>
         </row>
-        <row r="83">
-          <cell r="DM83">
-            <v>199.11953397226424</v>
+        <row r="86">
+          <cell r="DQ86">
+            <v>195.17686742748046</v>
           </cell>
         </row>
       </sheetData>
@@ -3397,6 +3619,9 @@
 <file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Models"/>
@@ -3405,17 +3630,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="L3">
-            <v>607.22179499999993</v>
+            <v>607.22368099999994</v>
           </cell>
         </row>
         <row r="5">
           <cell r="L5">
-            <v>2553.3780000000002</v>
+            <v>2472</v>
           </cell>
         </row>
         <row r="6">
           <cell r="L6">
-            <v>7111.2599999999993</v>
+            <v>7116</v>
           </cell>
         </row>
       </sheetData>
@@ -3473,7 +3698,7 @@
       <sheetName val="Skyrizi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1">
         <row r="3">
           <cell r="K3">
@@ -3491,12 +3716,12 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4524,6 +4749,42 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="KarXT"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="L3">
+            <v>34.515033000000003</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="L5">
+            <v>1124.0440000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="L6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
       <sheetName val="Model"/>
     </sheetNames>
     <sheetDataSet>
@@ -4550,7 +4811,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4595,7 +4856,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4631,7 +4892,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4659,50 +4920,6 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="JNJ-3989"/>
-      <sheetName val="fazirsiran"/>
-      <sheetName val="APOC3"/>
-      <sheetName val="ANG3"/>
-      <sheetName val="RAGE"/>
-      <sheetName val="olpasiran"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="L3">
-            <v>106.00572200000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="L5">
-            <v>482.26800000000003</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4798,29 +5015,37 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
-      <sheetName val="exa-cel"/>
-      <sheetName val="Model"/>
+      <sheetName val="JNJ-3989"/>
+      <sheetName val="fazirsiran"/>
+      <sheetName val="APOC3"/>
+      <sheetName val="ANG3"/>
+      <sheetName val="RAGE"/>
+      <sheetName val="olpasiran"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>78.646679000000006</v>
+          <cell r="L3">
+            <v>106.00572200000001</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>1868.4480000000001</v>
+          <cell r="L5">
+            <v>482.26800000000003</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
+          <cell r="L6">
             <v>0</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4834,6 +5059,42 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
+      <sheetName val="exa-cel"/>
+      <sheetName val="Model"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="N3">
+            <v>78.646679000000006</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="N5">
+            <v>1868.4480000000001</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="N6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -4858,7 +5119,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4896,7 +5157,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4925,7 +5186,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4956,7 +5217,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <xxl21:alternateUrls>
@@ -4992,7 +5253,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5023,7 +5284,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5060,7 +5321,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5081,40 +5342,6 @@
         </row>
         <row r="6">
           <cell r="L6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="ZN-c3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="K3">
-            <v>57.069490999999999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>449.76100000000002</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
             <v>0</v>
           </cell>
         </row>
@@ -5238,6 +5465,40 @@
 <file path=xl/externalLinks/externalLink70.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Main"/>
+      <sheetName val="ZN-c3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="K3">
+            <v>57.069490999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="K5">
+            <v>449.76100000000002</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="K6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Monkeypox"/>
@@ -5276,7 +5537,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5305,7 +5566,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5334,7 +5595,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5377,7 +5638,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5406,7 +5667,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5435,7 +5696,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -5465,35 +5726,6 @@
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink77.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Main"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="M3">
-            <v>44.710678000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>120.43700000000001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5509,17 +5741,17 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>184.19892899999999</v>
+            <v>44.710678000000001</v>
           </cell>
         </row>
         <row r="5">
           <cell r="M5">
-            <v>67.233999999999995</v>
+            <v>120.43700000000001</v>
           </cell>
         </row>
         <row r="6">
           <cell r="M6">
-            <v>126.736</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -5537,18 +5769,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="N3">
-            <v>20.079526999999999</v>
+          <cell r="M3">
+            <v>184.19892899999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="N5">
-            <v>16.64</v>
+          <cell r="M5">
+            <v>67.233999999999995</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="N6">
-            <v>0.69799999999999995</v>
+          <cell r="M6">
+            <v>126.736</v>
           </cell>
         </row>
       </sheetData>
@@ -5656,18 +5888,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="L3">
-            <v>48.69059</v>
+          <cell r="N3">
+            <v>20.079526999999999</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="L5">
-            <v>18.687999999999999</v>
+          <cell r="N5">
+            <v>16.64</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="L6">
-            <v>5.4249999999999998</v>
+          <cell r="N6">
+            <v>0.69799999999999995</v>
           </cell>
         </row>
       </sheetData>
@@ -5685,18 +5917,18 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="M3">
-            <v>20.500177000000001</v>
+          <cell r="L3">
+            <v>48.69059</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="M5">
-            <v>131.17699999999999</v>
+          <cell r="L5">
+            <v>18.687999999999999</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="M6">
-            <v>0</v>
+          <cell r="L6">
+            <v>5.4249999999999998</v>
           </cell>
         </row>
       </sheetData>
@@ -5706,6 +5938,35 @@
 </file>
 
 <file path=xl/externalLinks/externalLink82.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Main"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="M3">
+            <v>20.500177000000001</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="M5">
+            <v>131.17699999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="M6">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink83.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -6094,13 +6355,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3750AF13-821E-4BF9-92BC-DEDDF3C9498E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC228"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6121,8 +6382,8 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B1" s="1">
-        <f ca="1">RANDBETWEEN(1,B167)</f>
-        <v>41</v>
+        <f ca="1">RANDBETWEEN(1,B168)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
@@ -6130,22 +6391,22 @@
         <f>MIN(K4:K61)</f>
         <v>44889</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26" t="s">
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
@@ -6259,14 +6520,14 @@
         <v>429429.15</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>432</v>
+        <v>673</v>
       </c>
       <c r="J4" s="6">
         <f>+[1]Main!$Q$3</f>
         <v>2661</v>
       </c>
       <c r="K4" s="9">
-        <v>44950</v>
+        <v>45039</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -6304,33 +6565,33 @@
         <v>323112.65280000004</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>308</v>
+        <v>673</v>
       </c>
       <c r="J5" s="6">
         <f>+[2]Main!$J$3</f>
         <v>902.94</v>
       </c>
       <c r="K5" s="9">
-        <v>44959</v>
+        <v>45048</v>
       </c>
       <c r="L5" s="7">
-        <f>+[2]Model!$DM$83</f>
-        <v>199.11953397226424</v>
+        <f>+[2]Model!$DQ$86</f>
+        <v>195.17686742748046</v>
       </c>
       <c r="M5" s="10">
         <f>L5/E5-1</f>
-        <v>-0.42304261134601229</v>
+        <v>-0.43446665673539508</v>
       </c>
       <c r="N5" s="10">
-        <f>[2]Model!$DM$79</f>
+        <f>[2]Model!$DQ$82</f>
         <v>0.01</v>
       </c>
       <c r="O5" s="10">
-        <f>[2]Model!$DM$80</f>
+        <f>[2]Model!$DQ$83</f>
         <v>-0.01</v>
       </c>
       <c r="P5" s="10">
-        <f>[2]Model!$DM$81</f>
+        <f>[2]Model!$DQ$84</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="Q5" s="12">
@@ -6339,47 +6600,47 @@
       </c>
       <c r="R5" s="12">
         <f t="shared" si="2"/>
-        <v>46.706501094519005</v>
+        <v>59.511901253640886</v>
       </c>
       <c r="S5" s="12">
         <f t="shared" si="2"/>
-        <v>25.085826371624574</v>
+        <v>26.055643179922576</v>
       </c>
       <c r="T5" s="12">
         <f t="shared" si="2"/>
-        <v>23.286682483152301</v>
+        <v>23.89909144127131</v>
       </c>
       <c r="U5" s="12">
         <f t="shared" si="2"/>
-        <v>21.459431270342769</v>
+        <v>21.855580396644623</v>
       </c>
       <c r="V5" s="12">
         <f t="shared" si="2"/>
-        <v>20.481209668807779</v>
+        <v>20.765181083357518</v>
       </c>
       <c r="W5" s="11">
-        <f>+[2]Model!DC66</f>
+        <f>+[2]Model!DG69</f>
         <v>8.9161656552021782</v>
       </c>
       <c r="X5" s="11">
-        <f>+[2]Model!DD66</f>
-        <v>7.661569366735332</v>
+        <f>+[2]Model!DH69</f>
+        <v>6.0130006011405053</v>
       </c>
       <c r="Y5" s="11">
-        <f>+[2]Model!DE66</f>
-        <v>14.26483196973442</v>
+        <f>+[2]Model!DI69</f>
+        <v>13.733880815841767</v>
       </c>
       <c r="Z5" s="11">
-        <f>+[2]Model!DF66</f>
-        <v>15.366941953713443</v>
+        <f>+[2]Model!DJ69</f>
+        <v>14.97316744833215</v>
       </c>
       <c r="AA5" s="11">
-        <f>+[2]Model!DG66</f>
-        <v>16.675423197617725</v>
+        <f>+[2]Model!DK69</f>
+        <v>16.373168386234905</v>
       </c>
       <c r="AB5" s="11">
-        <f>+[2]Model!DH66</f>
-        <v>17.471873185212473</v>
+        <f>+[2]Model!DL69</f>
+        <v>17.232938955680762</v>
       </c>
       <c r="AC5" s="1">
         <v>1876</v>
@@ -6415,14 +6676,14 @@
         <v>326389.46124140004</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>432</v>
+        <v>673</v>
       </c>
       <c r="J6" s="6">
         <f>+[3]Main!$K$3</f>
         <v>1768.4805080000001</v>
       </c>
       <c r="K6" s="9">
-        <v>44970</v>
+        <v>45048</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -7621,29 +7882,32 @@
         <v>79</v>
       </c>
       <c r="E36" s="7">
-        <v>42</v>
+        <v>35.67</v>
       </c>
       <c r="F36" s="6">
         <f>+E36*J36</f>
-        <v>25503.315389999996</v>
+        <v>21659.668701269999</v>
       </c>
       <c r="G36" s="6">
         <f>+[28]Main!$L$5-[28]Main!$L$6</f>
-        <v>-4557.8819999999996</v>
+        <v>-4644</v>
       </c>
       <c r="H36" s="6">
         <f>+F36-G36</f>
-        <v>30061.197389999994</v>
+        <v>26303.668701269999</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>432</v>
+        <v>536</v>
       </c>
       <c r="J36" s="6">
         <f>+[28]Main!$L$3</f>
-        <v>607.22179499999993</v>
+        <v>607.22368099999994</v>
       </c>
       <c r="K36" s="9">
-        <v>44889</v>
+        <v>45020</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>1996</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
@@ -8668,7 +8932,7 @@
         <v>459.06500000000005</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" ref="H62:H68" si="7">+F62-G62</f>
+        <f t="shared" ref="H62:H69" si="7">+F62-G62</f>
         <v>5854.9390000000003</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -8684,8 +8948,8 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B63" s="1">
-        <f>B102+1</f>
-        <v>92</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>139</v>
@@ -8718,8 +8982,8 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B64" s="1">
-        <f>B62+1</f>
-        <v>54</v>
+        <f t="shared" si="5"/>
+        <v>55</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>303</v>
@@ -8753,356 +9017,375 @@
     <row r="65" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B65" s="1">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E65" s="3">
-        <v>35.26</v>
+        <v>619</v>
+      </c>
+      <c r="D65" t="s">
+        <v>620</v>
+      </c>
+      <c r="E65" s="7">
+        <v>176</v>
       </c>
       <c r="F65" s="6">
-        <f>+E65*J65</f>
-        <v>5008.6948473599996</v>
+        <f>E65*J65</f>
+        <v>6074.6458080000002</v>
       </c>
       <c r="G65" s="6">
-        <f>+[55]Main!$L$5-[55]Main!$L$6</f>
-        <v>816.24800000000005</v>
+        <f>[55]Main!$L$5-[55]Main!$L$6</f>
+        <v>1124.0440000000001</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="7"/>
-        <v>4192.4468473599991</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>432</v>
+        <f>F65-G65</f>
+        <v>4950.6018080000003</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>536</v>
       </c>
       <c r="J65" s="6">
-        <f>+[55]Main!$L$3</f>
-        <v>142.05033599999999</v>
+        <f>[55]Main!$L$3</f>
+        <v>34.515033000000003</v>
       </c>
       <c r="K65" s="9">
-        <v>44959</v>
+        <v>45008</v>
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B66" s="1">
         <f t="shared" si="5"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="E66" s="3">
-        <v>28.03</v>
+        <v>35.26</v>
       </c>
       <c r="F66" s="6">
-        <f>+J66*E66</f>
-        <v>4604.0473282500006</v>
+        <f>+E66*J66</f>
+        <v>5008.6948473599996</v>
       </c>
       <c r="G66" s="6">
         <f>+[56]Main!$L$5-[56]Main!$L$6</f>
-        <v>465.44</v>
+        <v>816.24800000000005</v>
       </c>
       <c r="H66" s="6">
         <f t="shared" si="7"/>
-        <v>4138.607328250001</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>308</v>
+        <v>4192.4468473599991</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="J66" s="6">
         <f>+[56]Main!$L$3</f>
-        <v>164.25427500000001</v>
+        <v>142.05033599999999</v>
       </c>
       <c r="K66" s="9">
-        <v>44782</v>
+        <v>44959</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="1">
         <f t="shared" si="5"/>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="E67" s="3">
-        <v>18.559999999999999</v>
+        <v>28.03</v>
       </c>
       <c r="F67" s="6">
-        <f>+E67*J67</f>
-        <v>6012.5305600000002</v>
+        <f>+J67*E67</f>
+        <v>4604.0473282500006</v>
       </c>
       <c r="G67" s="6">
-        <f>+[57]Main!$M$5-[57]Main!$M$6</f>
-        <v>2065.1990000000001</v>
+        <f>+[57]Main!$L$5-[57]Main!$L$6</f>
+        <v>465.44</v>
       </c>
       <c r="H67" s="6">
         <f t="shared" si="7"/>
-        <v>3947.3315600000001</v>
+        <v>4138.607328250001</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>536</v>
+        <v>308</v>
       </c>
       <c r="J67" s="6">
-        <f>+[57]Main!$M$3</f>
-        <v>323.95100000000002</v>
+        <f>+[57]Main!$L$3</f>
+        <v>164.25427500000001</v>
       </c>
       <c r="K67" s="9">
-        <v>44971</v>
+        <v>44782</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="1">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D68" t="s">
-        <v>446</v>
-      </c>
-      <c r="E68" s="7">
-        <v>73.790000000000006</v>
+        <v>124</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68" s="3">
+        <v>18.559999999999999</v>
       </c>
       <c r="F68" s="6">
         <f>+E68*J68</f>
-        <v>3204.4164939800003</v>
+        <v>6012.5305600000002</v>
       </c>
       <c r="G68" s="6">
-        <f>+[58]Main!$L$5-[58]Main!$L$6</f>
-        <v>133.33705900000001</v>
+        <f>+[58]Main!$M$5-[58]Main!$M$6</f>
+        <v>2065.1990000000001</v>
       </c>
       <c r="H68" s="6">
         <f t="shared" si="7"/>
-        <v>3071.0794349800003</v>
+        <v>3947.3315600000001</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>432</v>
+        <v>536</v>
       </c>
       <c r="J68" s="6">
-        <f>+[58]Main!$L$3</f>
-        <v>43.426161999999998</v>
+        <f>+[58]Main!$M$3</f>
+        <v>323.95100000000002</v>
       </c>
       <c r="K68" s="9">
-        <v>44920</v>
+        <v>44971</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="1">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>391</v>
+        <v>60</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>445</v>
       </c>
       <c r="D69" t="s">
-        <v>392</v>
+        <v>446</v>
+      </c>
+      <c r="E69" s="7">
+        <v>73.790000000000006</v>
+      </c>
+      <c r="F69" s="6">
+        <f>+E69*J69</f>
+        <v>3204.4164939800003</v>
+      </c>
+      <c r="G69" s="6">
+        <f>+[59]Main!$L$5-[59]Main!$L$6</f>
+        <v>133.33705900000001</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" si="7"/>
+        <v>3071.0794349800003</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="J69" s="6">
+        <f>+[59]Main!$L$3</f>
+        <v>43.426161999999998</v>
+      </c>
+      <c r="K69" s="9">
+        <v>44920</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B70" s="1">
-        <f>+B69</f>
-        <v>59</v>
+        <f t="shared" si="5"/>
+        <v>61</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>391</v>
       </c>
       <c r="D70" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B71" s="1">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="C71" t="s">
-        <v>277</v>
+        <f>+B70</f>
+        <v>61</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
-      </c>
-      <c r="E71" s="15">
-        <v>73.56</v>
+        <v>393</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B72" s="1">
         <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E72" s="3">
-        <v>7.71</v>
-      </c>
-      <c r="F72" s="3">
-        <v>9880</v>
+        <v>62</v>
+      </c>
+      <c r="C72" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" t="s">
+        <v>277</v>
+      </c>
+      <c r="E72" s="15">
+        <v>73.56</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B73" s="1">
-        <f>B99+1</f>
-        <v>88</v>
+        <f t="shared" si="5"/>
+        <v>63</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E73" s="3">
-        <v>46.23</v>
+        <v>7.71</v>
       </c>
       <c r="F73" s="3">
-        <v>7850</v>
+        <v>9880</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B74" s="1">
-        <f>B72+1</f>
-        <v>62</v>
-      </c>
-      <c r="C74" t="s">
-        <v>378</v>
-      </c>
-      <c r="D74" t="s">
-        <v>379</v>
+        <f>B99+1</f>
+        <v>73</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" s="3">
+        <v>46.23</v>
+      </c>
+      <c r="F74" s="3">
+        <v>7850</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B75" s="1">
-        <f t="shared" si="5"/>
-        <v>63</v>
+        <f>B73+1</f>
+        <v>64</v>
       </c>
       <c r="C75" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D75" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B76" s="1">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C76" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D76" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B77" s="1">
         <f t="shared" si="5"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C77" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D77" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B78" s="1">
         <f t="shared" si="5"/>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="D78" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B79" s="1">
         <f t="shared" si="5"/>
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="D79" t="s">
-        <v>365</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B80" s="1">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C80" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D80" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B81" s="1">
         <f t="shared" si="5"/>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C81" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D81" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B82" s="1">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>366</v>
       </c>
       <c r="D82" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B83" s="1">
         <f t="shared" si="5"/>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C83" t="s">
-        <v>619</v>
+        <v>278</v>
       </c>
       <c r="D83" t="s">
-        <v>620</v>
-      </c>
-      <c r="E83" s="7">
-        <v>187</v>
-      </c>
-      <c r="F83" s="6">
-        <v>6460</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B84" s="1">
-        <f t="shared" si="5"/>
-        <v>72</v>
+        <f>B65+1</f>
+        <v>57</v>
       </c>
       <c r="C84" t="s">
         <v>621</v>
@@ -9120,7 +9403,7 @@
     <row r="85" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B85" s="1">
         <f t="shared" si="5"/>
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C85" t="s">
         <v>275</v>
@@ -9132,7 +9415,7 @@
     <row r="86" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B86" s="1">
         <f t="shared" si="5"/>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
         <v>372</v>
@@ -9144,7 +9427,7 @@
     <row r="87" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B87" s="1">
         <f t="shared" si="5"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C87" t="s">
         <v>387</v>
@@ -9159,7 +9442,7 @@
     <row r="88" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B88" s="1">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>106</v>
@@ -9174,7 +9457,7 @@
     <row r="89" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B89" s="1">
         <f t="shared" si="5"/>
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>108</v>
@@ -9189,7 +9472,7 @@
     <row r="90" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B90" s="1">
         <f t="shared" si="5"/>
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>110</v>
@@ -9204,7 +9487,7 @@
     <row r="91" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B91" s="1">
         <f t="shared" si="5"/>
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C91" t="s">
         <v>617</v>
@@ -9216,7 +9499,7 @@
     <row r="92" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B92" s="1">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>112</v>
@@ -9234,7 +9517,7 @@
     <row r="93" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B93" s="1">
         <f t="shared" si="5"/>
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C93" t="s">
         <v>531</v>
@@ -9252,7 +9535,7 @@
     <row r="94" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B94" s="1">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>114</v>
@@ -9268,7 +9551,7 @@
         <v>3086.8866246400003</v>
       </c>
       <c r="G94" s="6">
-        <f>+[59]Main!$L$5-[59]Main!$L$6</f>
+        <f>+[60]Main!$L$5-[60]Main!$L$6</f>
         <v>482.26800000000003</v>
       </c>
       <c r="H94" s="6">
@@ -9279,7 +9562,7 @@
         <v>432</v>
       </c>
       <c r="J94" s="6">
-        <f>+[59]Main!$L$3</f>
+        <f>+[60]Main!$L$3</f>
         <v>106.00572200000001</v>
       </c>
       <c r="K94" s="9">
@@ -9289,7 +9572,7 @@
     <row r="95" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B95" s="1">
         <f t="shared" si="5"/>
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>122</v>
@@ -9305,7 +9588,7 @@
         <v>3696.3939130000003</v>
       </c>
       <c r="G95" s="6">
-        <f>[60]Main!$N$5-[60]Main!$N$6</f>
+        <f>[61]Main!$N$5-[61]Main!$N$6</f>
         <v>1868.4480000000001</v>
       </c>
       <c r="H95" s="6">
@@ -9316,7 +9599,7 @@
         <v>536</v>
       </c>
       <c r="J95" s="6">
-        <f>[60]Main!$N$3</f>
+        <f>[61]Main!$N$3</f>
         <v>78.646679000000006</v>
       </c>
       <c r="K95" s="9">
@@ -9326,7 +9609,7 @@
     <row r="96" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B96" s="1">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>98</v>
@@ -9342,7 +9625,7 @@
         <v>1539.4211638199999</v>
       </c>
       <c r="G96" s="6">
-        <f>+[61]Main!$M$5-[61]Main!$M$6</f>
+        <f>+[62]Main!$M$5-[62]Main!$M$6</f>
         <v>306.53399999999999</v>
       </c>
       <c r="H96" s="6">
@@ -9353,7 +9636,7 @@
         <v>432</v>
       </c>
       <c r="J96" s="6">
-        <f>+[61]Main!$M$3</f>
+        <f>+[62]Main!$M$3</f>
         <v>75.684422999999995</v>
       </c>
       <c r="K96" s="9">
@@ -9363,7 +9646,7 @@
     <row r="97" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B97" s="1">
         <f t="shared" si="5"/>
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C97" t="s">
         <v>451</v>
@@ -9382,7 +9665,7 @@
     <row r="98" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B98" s="1">
         <f t="shared" si="5"/>
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>116</v>
@@ -9397,7 +9680,7 @@
     <row r="99" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B99" s="1">
         <f t="shared" si="5"/>
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>118</v>
@@ -9411,8 +9694,8 @@
     </row>
     <row r="100" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B100" s="1">
-        <f>B73+1</f>
-        <v>89</v>
+        <f>B74+1</f>
+        <v>74</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>127</v>
@@ -9430,7 +9713,7 @@
     <row r="101" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B101" s="1">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>131</v>
@@ -9448,7 +9731,7 @@
     <row r="102" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B102" s="1">
         <f t="shared" si="5"/>
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>133</v>
@@ -9463,7 +9746,7 @@
     <row r="103" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B103" s="1">
         <f>B63+1</f>
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>141</v>
@@ -9478,7 +9761,7 @@
     <row r="104" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B104" s="1">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>143</v>
@@ -9492,8 +9775,8 @@
     </row>
     <row r="105" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B105" s="1">
-        <f t="shared" ref="B105:B172" si="8">B104+1</f>
-        <v>95</v>
+        <f t="shared" ref="B105:B173" si="8">B104+1</f>
+        <v>57</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>145</v>
@@ -9508,7 +9791,7 @@
     <row r="106" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B106" s="1">
         <f t="shared" si="8"/>
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="C106" t="s">
         <v>314</v>
@@ -9526,7 +9809,7 @@
     <row r="107" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B107" s="1">
         <f t="shared" si="8"/>
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>149</v>
@@ -9541,7 +9824,7 @@
     <row r="108" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B108" s="1">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>151</v>
@@ -9556,7 +9839,7 @@
     <row r="109" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B109" s="1">
         <f t="shared" si="8"/>
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>167</v>
@@ -9574,7 +9857,7 @@
     <row r="110" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B110" s="1">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>169</v>
@@ -9592,7 +9875,7 @@
     <row r="111" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B111" s="1">
         <f t="shared" si="8"/>
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>155</v>
@@ -9610,7 +9893,7 @@
     <row r="112" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B112" s="1">
         <f t="shared" si="8"/>
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>157</v>
@@ -9628,7 +9911,7 @@
     <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="1">
         <f t="shared" si="8"/>
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>147</v>
@@ -9644,7 +9927,7 @@
         <v>3665.5079962199993</v>
       </c>
       <c r="G113" s="6">
-        <f>+[62]Main!$J$5-[62]Main!$J$6</f>
+        <f>+[63]Main!$J$5-[63]Main!$J$6</f>
         <v>1178.829</v>
       </c>
       <c r="H113" s="6">
@@ -9655,7 +9938,7 @@
         <v>456</v>
       </c>
       <c r="J113" s="6">
-        <f>+[62]Main!$J$3</f>
+        <f>+[63]Main!$J$3</f>
         <v>85.284038999999993</v>
       </c>
       <c r="K113" s="9">
@@ -9665,7 +9948,7 @@
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="1">
         <f t="shared" si="8"/>
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>161</v>
@@ -9681,7 +9964,7 @@
         <v>3249.6786968599999</v>
       </c>
       <c r="G114" s="6">
-        <f>+[63]Main!$K$5-[63]Main!$K$6</f>
+        <f>+[64]Main!$K$5-[64]Main!$K$6</f>
         <v>1178.8610000000001</v>
       </c>
       <c r="H114" s="6">
@@ -9692,7 +9975,7 @@
         <v>308</v>
       </c>
       <c r="J114" s="6">
-        <f>+[63]Main!$K$3</f>
+        <f>+[64]Main!$K$3</f>
         <v>70.354594000000006</v>
       </c>
       <c r="K114" s="9">
@@ -9702,7 +9985,7 @@
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="1">
         <f t="shared" si="8"/>
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>159</v>
@@ -9714,11 +9997,11 @@
         <v>9.18</v>
       </c>
       <c r="F115" s="6">
-        <f>+E115*[64]Main!$N$3</f>
+        <f>+E115*[65]Main!$N$3</f>
         <v>2859.4049160599998</v>
       </c>
       <c r="G115" s="6">
-        <f>+[64]Main!$N$5-[64]Main!$N$6</f>
+        <f>+[65]Main!$N$5-[65]Main!$N$6</f>
         <v>869.93499999999995</v>
       </c>
       <c r="H115" s="6">
@@ -9732,7 +10015,7 @@
     <row r="116" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B116" s="1">
         <f>B128+1</f>
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>185</v>
@@ -9748,7 +10031,7 @@
         <v>2567.8571440000001</v>
       </c>
       <c r="G116" s="6">
-        <f>[65]Main!$K$5-[65]Main!$K$6</f>
+        <f>[66]Main!$K$5-[66]Main!$K$6</f>
         <v>1272.4940000000001</v>
       </c>
       <c r="H116" s="6">
@@ -9759,7 +10042,7 @@
         <v>536</v>
       </c>
       <c r="J116" s="6">
-        <f>[65]Main!$K$3</f>
+        <f>[66]Main!$K$3</f>
         <v>59.717607999999998</v>
       </c>
       <c r="K116" s="9">
@@ -9769,7 +10052,7 @@
     <row r="117" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B117" s="1">
         <f>B115+1</f>
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>385</v>
@@ -9785,7 +10068,7 @@
         <v>1436.0261408599999</v>
       </c>
       <c r="G117" s="6">
-        <f>+[66]Main!$J$5-[66]Main!$J$6</f>
+        <f>+[67]Main!$J$5-[67]Main!$J$6</f>
         <v>566.44900000000007</v>
       </c>
       <c r="H117" s="6">
@@ -9796,7 +10079,7 @@
         <v>308</v>
       </c>
       <c r="J117" s="6">
-        <f>+[66]Main!$J$3</f>
+        <f>+[67]Main!$J$3</f>
         <v>58.068182</v>
       </c>
       <c r="K117" s="9">
@@ -9806,7 +10089,7 @@
     <row r="118" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B118" s="1">
         <f t="shared" si="8"/>
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>358</v>
@@ -9822,7 +10105,7 @@
         <v>2379.9056977800001</v>
       </c>
       <c r="G118" s="6">
-        <f>+[67]Main!$K$5-[67]Main!$K$6</f>
+        <f>+[68]Main!$K$5-[68]Main!$K$6</f>
         <v>1840.732</v>
       </c>
       <c r="H118" s="6">
@@ -9833,7 +10116,7 @@
         <v>308</v>
       </c>
       <c r="J118" s="6">
-        <f>+[67]Main!$K$3</f>
+        <f>+[68]Main!$K$3</f>
         <v>695.87885900000003</v>
       </c>
       <c r="K118" s="9">
@@ -9843,7 +10126,7 @@
     <row r="119" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B119" s="1">
         <f t="shared" si="8"/>
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>165</v>
@@ -9861,7 +10144,7 @@
     <row r="120" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B120" s="1">
         <f t="shared" si="8"/>
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>542</v>
@@ -9874,7 +10157,7 @@
     <row r="121" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B121" s="1">
         <f t="shared" si="8"/>
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>177</v>
@@ -9892,7 +10175,7 @@
     <row r="122" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B122" s="25">
         <f t="shared" si="8"/>
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="C122" s="25" t="s">
         <v>527</v>
@@ -9910,7 +10193,7 @@
     <row r="123" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B123" s="1">
         <f t="shared" si="8"/>
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>525</v>
@@ -9927,8 +10210,8 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B124" s="1">
-        <f>B151+1</f>
-        <v>114</v>
+        <f>B152+1</f>
+        <v>76</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>179</v>
@@ -9946,7 +10229,7 @@
     <row r="125" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B125" s="1">
         <f t="shared" si="8"/>
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
         <v>351</v>
@@ -9964,7 +10247,7 @@
     <row r="126" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B126" s="1">
         <f t="shared" si="8"/>
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>208</v>
@@ -9982,7 +10265,7 @@
     <row r="127" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B127" s="1">
         <f t="shared" si="8"/>
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>183</v>
@@ -10000,7 +10283,7 @@
     <row r="128" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B128" s="1">
         <f t="shared" si="8"/>
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>196</v>
@@ -10018,7 +10301,7 @@
     <row r="129" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B129" s="1">
         <f>B116+1</f>
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>299</v>
@@ -10036,7 +10319,7 @@
     <row r="130" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B130" s="1">
         <f t="shared" si="8"/>
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>218</v>
@@ -10054,7 +10337,7 @@
     <row r="131" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B131" s="1">
         <f t="shared" si="8"/>
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>216</v>
@@ -10072,7 +10355,7 @@
     <row r="132" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B132" s="1">
         <f t="shared" si="8"/>
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>204</v>
@@ -10090,7 +10373,7 @@
     <row r="133" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B133" s="1">
         <f t="shared" si="8"/>
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>222</v>
@@ -10108,7 +10391,7 @@
     <row r="134" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B134" s="1">
         <f t="shared" si="8"/>
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>192</v>
@@ -10126,7 +10409,7 @@
     <row r="135" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B135" s="1">
         <f t="shared" si="8"/>
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>173</v>
@@ -10144,7 +10427,7 @@
     <row r="136" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B136" s="1">
         <f t="shared" si="8"/>
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>187</v>
@@ -10162,7 +10445,7 @@
     <row r="137" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B137" s="1">
         <f t="shared" si="8"/>
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>181</v>
@@ -10178,727 +10461,715 @@
       </c>
     </row>
     <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" s="1">
+      <c r="B138" s="25">
         <f t="shared" si="8"/>
-        <v>129</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E138" s="3">
-        <v>28.37</v>
-      </c>
-      <c r="F138" s="6">
-        <v>1370</v>
+        <v>91</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>647</v>
+      </c>
+      <c r="D138" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="E138" s="26">
+        <v>20.66</v>
+      </c>
+      <c r="F138" s="27">
+        <v>1400</v>
       </c>
     </row>
     <row r="139" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B139" s="1">
         <f t="shared" si="8"/>
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E139" s="7">
-        <v>7.13</v>
+        <v>211</v>
+      </c>
+      <c r="E139" s="3">
+        <v>28.37</v>
       </c>
       <c r="F139" s="6">
-        <v>1350</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B140" s="1">
         <f t="shared" si="8"/>
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="E140" s="7">
-        <v>5.75</v>
+        <v>7.13</v>
       </c>
       <c r="F140" s="6">
-        <v>1100</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="141" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B141" s="1">
         <f t="shared" si="8"/>
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E141" s="3">
-        <v>2.15</v>
+        <v>164</v>
+      </c>
+      <c r="E141" s="7">
+        <v>5.75</v>
       </c>
       <c r="F141" s="6">
-        <v>1050</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="142" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B142" s="1">
         <f t="shared" si="8"/>
-        <v>133</v>
-      </c>
-      <c r="C142" t="s">
-        <v>454</v>
-      </c>
-      <c r="D142" t="s">
-        <v>455</v>
+        <v>95</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="E142" s="3">
-        <v>23.13</v>
+        <v>2.15</v>
       </c>
       <c r="F142" s="6">
-        <v>1000</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="143" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B143" s="1">
         <f t="shared" si="8"/>
-        <v>134</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E143" s="7">
-        <v>21.6</v>
+        <v>96</v>
+      </c>
+      <c r="C143" t="s">
+        <v>454</v>
+      </c>
+      <c r="D143" t="s">
+        <v>455</v>
+      </c>
+      <c r="E143" s="3">
+        <v>23.13</v>
       </c>
       <c r="F143" s="6">
-        <v>991</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="144" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B144" s="1">
         <f t="shared" si="8"/>
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>220</v>
+        <v>175</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E144" s="3">
-        <v>9.7799999999999994</v>
+        <v>176</v>
+      </c>
+      <c r="E144" s="7">
+        <v>21.6</v>
       </c>
       <c r="F144" s="6">
-        <v>903</v>
+        <v>991</v>
       </c>
     </row>
     <row r="145" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B145" s="1">
         <f t="shared" si="8"/>
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>89</v>
+        <v>221</v>
       </c>
       <c r="E145" s="3">
-        <v>12.61</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="F145" s="6">
-        <v>860</v>
+        <v>903</v>
       </c>
     </row>
     <row r="146" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B146" s="1">
         <f t="shared" si="8"/>
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>202</v>
+        <v>88</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>203</v>
+        <v>89</v>
       </c>
       <c r="E146" s="3">
-        <v>2.42</v>
+        <v>12.61</v>
       </c>
       <c r="F146" s="6">
-        <v>823</v>
+        <v>860</v>
       </c>
     </row>
     <row r="147" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B147" s="1">
         <f t="shared" si="8"/>
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E147" s="7">
-        <v>5.7</v>
+        <v>203</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2.42</v>
       </c>
       <c r="F147" s="6">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="148" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B148" s="1">
         <f t="shared" si="8"/>
-        <v>139</v>
-      </c>
-      <c r="C148" t="s">
-        <v>311</v>
-      </c>
-      <c r="D148" t="s">
-        <v>312</v>
-      </c>
-      <c r="E148" s="3">
-        <v>3.23</v>
+        <v>101</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E148" s="7">
+        <v>5.7</v>
       </c>
       <c r="F148" s="6">
-        <v>630</v>
+        <v>821</v>
       </c>
     </row>
     <row r="149" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B149" s="1">
         <f t="shared" si="8"/>
-        <v>140</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>207</v>
+        <v>102</v>
+      </c>
+      <c r="C149" t="s">
+        <v>311</v>
+      </c>
+      <c r="D149" t="s">
+        <v>312</v>
       </c>
       <c r="E149" s="3">
-        <v>4.16</v>
+        <v>3.23</v>
       </c>
       <c r="F149" s="6">
-        <v>590</v>
+        <v>630</v>
       </c>
     </row>
     <row r="150" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B150" s="1">
         <f t="shared" si="8"/>
-        <v>141</v>
-      </c>
-      <c r="C150" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E150" s="3">
+        <v>4.16</v>
+      </c>
+      <c r="F150" s="6">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="151" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="B151" s="1">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="C151" t="s">
         <v>297</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D151" t="s">
         <v>298</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E151" s="3">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F150" s="6">
+      <c r="F151" s="6">
         <f>4406/HKD</f>
         <v>561.27388535031855</v>
       </c>
     </row>
-    <row r="151" spans="2:29" x14ac:dyDescent="0.2">
-      <c r="B151" s="1">
-        <f>B123+1</f>
-        <v>113</v>
-      </c>
-      <c r="C151" t="s">
-        <v>529</v>
-      </c>
-      <c r="D151" t="s">
-        <v>530</v>
-      </c>
-      <c r="E151" s="7">
-        <v>3.19</v>
-      </c>
-      <c r="F151" s="6">
-        <v>439</v>
-      </c>
-    </row>
     <row r="152" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B152" s="1">
-        <f>B150+1</f>
-        <v>142</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E152" s="3">
-        <v>10.98</v>
+        <f>B123+1</f>
+        <v>75</v>
+      </c>
+      <c r="C152" t="s">
+        <v>529</v>
+      </c>
+      <c r="D152" t="s">
+        <v>530</v>
+      </c>
+      <c r="E152" s="7">
+        <v>3.19</v>
       </c>
       <c r="F152" s="6">
-        <v>548</v>
+        <v>439</v>
       </c>
     </row>
     <row r="153" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B153" s="1">
-        <f t="shared" si="8"/>
-        <v>143</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D153" t="s">
-        <v>295</v>
+        <f>B151+1</f>
+        <v>105</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="E153" s="3">
-        <v>15.65</v>
+        <v>10.98</v>
       </c>
       <c r="F153" s="6">
-        <f>E153*[68]Main!$L$3</f>
-        <v>1253.1559559500001</v>
-      </c>
-      <c r="G153" s="6">
-        <f>+[68]Main!$L$5-[68]Main!$L$6</f>
-        <v>112.015</v>
-      </c>
-      <c r="H153" s="6">
-        <f>+F153-G153</f>
-        <v>1141.14095595</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>16</v>
+        <v>548</v>
       </c>
     </row>
     <row r="154" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B154" s="1">
         <f t="shared" si="8"/>
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>231</v>
+        <v>294</v>
+      </c>
+      <c r="D154" t="s">
+        <v>295</v>
       </c>
       <c r="E154" s="3">
-        <v>23.75</v>
+        <v>15.65</v>
       </c>
       <c r="F154" s="6">
-        <f>+E154*J154</f>
-        <v>1355.4004112499999</v>
+        <f>E154*[69]Main!$L$3</f>
+        <v>1253.1559559500001</v>
       </c>
       <c r="G154" s="6">
-        <f>+[69]Main!$K$5-[69]Main!$K$6</f>
-        <v>449.76100000000002</v>
+        <f>+[69]Main!$L$5-[69]Main!$L$6</f>
+        <v>112.015</v>
       </c>
       <c r="H154" s="6">
         <f>+F154-G154</f>
-        <v>905.63941124999997</v>
+        <v>1141.14095595</v>
       </c>
       <c r="I154" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="J154" s="6">
-        <f>+[69]Main!$K$3</f>
-        <v>57.069490999999999</v>
-      </c>
-      <c r="K154" s="9">
-        <v>44947</v>
-      </c>
-      <c r="AC154" s="1">
-        <v>2015</v>
+        <v>16</v>
       </c>
     </row>
     <row r="155" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B155" s="1">
         <f t="shared" si="8"/>
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="D155" t="s">
-        <v>306</v>
+        <v>230</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>231</v>
       </c>
       <c r="E155" s="3">
-        <v>11</v>
+        <v>23.75</v>
       </c>
       <c r="F155" s="6">
-        <f>+E155*[70]Main!$L$3</f>
-        <v>798.23003700000004</v>
+        <f>+E155*J155</f>
+        <v>1355.4004112499999</v>
       </c>
       <c r="G155" s="6">
-        <f>+[70]Main!$L$5-[70]Main!$L$6</f>
-        <v>153.25991400000001</v>
+        <f>+[70]Main!$K$5-[70]Main!$K$6</f>
+        <v>449.76100000000002</v>
       </c>
       <c r="H155" s="6">
         <f>+F155-G155</f>
-        <v>644.97012300000006</v>
+        <v>905.63941124999997</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>16</v>
+        <v>432</v>
+      </c>
+      <c r="J155" s="6">
+        <f>+[70]Main!$K$3</f>
+        <v>57.069490999999999</v>
       </c>
       <c r="K155" s="9">
-        <v>44771</v>
-      </c>
-      <c r="L155" s="9"/>
-      <c r="M155" s="9"/>
-      <c r="N155" s="9"/>
-      <c r="O155" s="9"/>
-      <c r="P155" s="9"/>
+        <v>44947</v>
+      </c>
+      <c r="AC155" s="1">
+        <v>2015</v>
+      </c>
     </row>
     <row r="156" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B156" s="1">
         <f t="shared" si="8"/>
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>199</v>
+        <v>305</v>
+      </c>
+      <c r="D156" t="s">
+        <v>306</v>
       </c>
       <c r="E156" s="3">
-        <v>7.36</v>
+        <v>11</v>
       </c>
       <c r="F156" s="6">
-        <f>+E156*J156</f>
-        <v>897.18233664000002</v>
+        <f>+E156*[71]Main!$L$3</f>
+        <v>798.23003700000004</v>
       </c>
       <c r="G156" s="6">
-        <f>+[71]Main!$J$5-[71]Main!$J$6</f>
-        <v>601.58999999999992</v>
+        <f>+[71]Main!$L$5-[71]Main!$L$6</f>
+        <v>153.25991400000001</v>
       </c>
       <c r="H156" s="6">
         <f>+F156-G156</f>
-        <v>295.5923366400001</v>
+        <v>644.97012300000006</v>
       </c>
       <c r="I156" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J156" s="6">
-        <f>+[71]Main!$J$3</f>
-        <v>121.89977399999999</v>
-      </c>
       <c r="K156" s="9">
-        <v>44827</v>
-      </c>
+        <v>44771</v>
+      </c>
+      <c r="L156" s="9"/>
+      <c r="M156" s="9"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
     </row>
     <row r="157" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B157" s="1">
         <f t="shared" si="8"/>
-        <v>147</v>
-      </c>
-      <c r="C157" t="s">
-        <v>309</v>
-      </c>
-      <c r="D157" t="s">
-        <v>310</v>
+        <v>109</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="E157" s="3">
-        <v>12.42</v>
+        <v>7.36</v>
       </c>
       <c r="F157" s="6">
-        <v>516</v>
+        <f>+E157*J157</f>
+        <v>897.18233664000002</v>
+      </c>
+      <c r="G157" s="6">
+        <f>+[72]Main!$J$5-[72]Main!$J$6</f>
+        <v>601.58999999999992</v>
+      </c>
+      <c r="H157" s="6">
+        <f>+F157-G157</f>
+        <v>295.5923366400001</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157" s="6">
+        <f>+[72]Main!$J$3</f>
+        <v>121.89977399999999</v>
+      </c>
+      <c r="K157" s="9">
+        <v>44827</v>
       </c>
     </row>
     <row r="158" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B158" s="1">
         <f t="shared" si="8"/>
-        <v>148</v>
+        <v>110</v>
       </c>
       <c r="C158" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D158" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E158" s="3">
-        <v>3.26</v>
+        <v>12.42</v>
       </c>
       <c r="F158" s="6">
-        <v>272</v>
+        <v>516</v>
       </c>
     </row>
     <row r="159" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B159" s="1">
         <f t="shared" si="8"/>
-        <v>149</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>225</v>
+        <v>111</v>
+      </c>
+      <c r="C159" t="s">
+        <v>316</v>
+      </c>
+      <c r="D159" t="s">
+        <v>317</v>
       </c>
       <c r="E159" s="3">
-        <v>6.34</v>
-      </c>
-      <c r="F159" s="3">
-        <v>547</v>
+        <v>3.26</v>
+      </c>
+      <c r="F159" s="6">
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B160" s="1">
         <f t="shared" si="8"/>
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E160" s="7">
-        <v>31.39</v>
+        <v>225</v>
+      </c>
+      <c r="E160" s="3">
+        <v>6.34</v>
       </c>
       <c r="F160" s="3">
-        <v>1020</v>
+        <v>547</v>
       </c>
     </row>
     <row r="161" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B161" s="1">
         <f t="shared" si="8"/>
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E161" s="7">
-        <v>5.9</v>
+        <v>31.39</v>
       </c>
       <c r="F161" s="3">
-        <v>508</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="162" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B162" s="1">
         <f t="shared" si="8"/>
-        <v>152</v>
-      </c>
-      <c r="C162" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="D162" t="s">
-        <v>330</v>
-      </c>
-      <c r="E162" s="3">
-        <v>3.23</v>
-      </c>
-      <c r="F162" s="6">
-        <f>+E162*J162</f>
-        <v>30.407559149999997</v>
-      </c>
-      <c r="G162" s="6">
-        <f>+[72]Main!$N$5-[72]Main!$N$6</f>
-        <v>-7.4640000000000004</v>
-      </c>
-      <c r="H162" s="6">
-        <f>+F162-G162</f>
-        <v>37.871559149999996</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J162" s="6">
-        <f>+[72]Main!$N$3</f>
-        <v>9.4141049999999993</v>
-      </c>
-      <c r="K162" s="9">
-        <v>44780</v>
+        <v>114</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E162" s="7">
+        <v>5.9</v>
+      </c>
+      <c r="F162" s="3">
+        <v>508</v>
       </c>
     </row>
     <row r="163" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B163" s="1">
         <f t="shared" si="8"/>
-        <v>153</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>233</v>
+        <v>115</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D163" t="s">
+        <v>330</v>
       </c>
       <c r="E163" s="3">
-        <v>10.31</v>
-      </c>
-      <c r="F163" s="3">
-        <v>1240</v>
+        <v>3.23</v>
+      </c>
+      <c r="F163" s="6">
+        <f>+E163*J163</f>
+        <v>30.407559149999997</v>
+      </c>
+      <c r="G163" s="6">
+        <f>+[73]Main!$N$5-[73]Main!$N$6</f>
+        <v>-7.4640000000000004</v>
+      </c>
+      <c r="H163" s="6">
+        <f>+F163-G163</f>
+        <v>37.871559149999996</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="J163" s="6">
+        <f>+[73]Main!$N$3</f>
+        <v>9.4141049999999993</v>
+      </c>
+      <c r="K163" s="9">
+        <v>44780</v>
       </c>
     </row>
     <row r="164" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B164" s="1">
         <f t="shared" si="8"/>
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E164" s="7">
-        <v>1.3</v>
+        <v>233</v>
+      </c>
+      <c r="E164" s="3">
+        <v>10.31</v>
       </c>
       <c r="F164" s="3">
-        <v>107</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="165" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B165" s="1">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E165" s="3">
-        <v>3.35</v>
+        <v>235</v>
+      </c>
+      <c r="E165" s="7">
+        <v>1.3</v>
       </c>
       <c r="F165" s="3">
-        <v>457</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B166" s="1">
         <f t="shared" si="8"/>
-        <v>156</v>
-      </c>
-      <c r="C166" s="5" t="s">
-        <v>238</v>
+        <v>118</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>236</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E166" s="3">
-        <v>7.06</v>
-      </c>
-      <c r="F166" s="6">
-        <f>E166*[73]Main!$J$3</f>
-        <v>725.62786605999997</v>
-      </c>
-      <c r="G166" s="6">
-        <f>[73]Main!$J$5-[73]Main!$J$6</f>
-        <v>197.79600000000002</v>
-      </c>
-      <c r="H166" s="8">
-        <f>+F166-G166</f>
-        <v>527.83186605999992</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>16</v>
+        <v>3.35</v>
+      </c>
+      <c r="F166" s="3">
+        <v>457</v>
       </c>
     </row>
     <row r="167" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B167" s="1">
         <f t="shared" si="8"/>
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>360</v>
+        <v>238</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="E167" s="7">
-        <v>0.6</v>
+        <v>239</v>
+      </c>
+      <c r="E167" s="3">
+        <v>7.06</v>
       </c>
       <c r="F167" s="6">
-        <f>+E167*J167</f>
-        <v>486.43225439999998</v>
+        <f>E167*[74]Main!$J$3</f>
+        <v>725.62786605999997</v>
       </c>
       <c r="G167" s="6">
-        <f>+[74]Main!$K$5-[74]Main!$K$6</f>
-        <v>-37.984000000000002</v>
+        <f>[74]Main!$J$5-[74]Main!$J$6</f>
+        <v>197.79600000000002</v>
       </c>
       <c r="H167" s="8">
-        <f t="shared" ref="H167" si="9">+F167-G167</f>
-        <v>524.41625439999996</v>
+        <f>+F167-G167</f>
+        <v>527.83186605999992</v>
       </c>
       <c r="I167" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J167" s="6">
-        <f>+[74]Main!$K$3</f>
-        <v>810.72042399999998</v>
-      </c>
-      <c r="K167" s="9">
-        <v>44816</v>
-      </c>
-      <c r="AC167" s="1">
-        <v>2002</v>
+        <v>16</v>
       </c>
     </row>
     <row r="168" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B168" s="1">
         <f t="shared" si="8"/>
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E168" s="3">
-        <v>14.68</v>
+        <v>361</v>
+      </c>
+      <c r="E168" s="7">
+        <v>0.6</v>
       </c>
       <c r="F168" s="6">
-        <f>E168*[75]Main!$L$3</f>
-        <v>587.26396075999992</v>
+        <f>+E168*J168</f>
+        <v>486.43225439999998</v>
       </c>
       <c r="G168" s="6">
-        <f>[75]Main!$L$5-[75]Main!$L$6</f>
-        <v>277.88299999999998</v>
+        <f>+[75]Main!$K$5-[75]Main!$K$6</f>
+        <v>-37.984000000000002</v>
       </c>
       <c r="H168" s="8">
-        <f>+F168-G168</f>
-        <v>309.38096075999994</v>
+        <f t="shared" ref="H168" si="9">+F168-G168</f>
+        <v>524.41625439999996</v>
       </c>
       <c r="I168" s="3" t="s">
-        <v>16</v>
+        <v>308</v>
+      </c>
+      <c r="J168" s="6">
+        <f>+[75]Main!$K$3</f>
+        <v>810.72042399999998</v>
+      </c>
+      <c r="K168" s="9">
+        <v>44816</v>
+      </c>
+      <c r="AC168" s="1">
+        <v>2002</v>
       </c>
     </row>
     <row r="169" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B169" s="1">
         <f t="shared" si="8"/>
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E169" s="3">
-        <v>4.8600000000000003</v>
+        <v>14.68</v>
       </c>
       <c r="F169" s="6">
-        <f>E169*[76]Main!$J$3</f>
-        <v>312.71415336000001</v>
-      </c>
-      <c r="G169" s="8">
-        <f>+[76]Main!$J$5-[76]Main!$J$6</f>
-        <v>92.317999999999998</v>
+        <f>E169*[76]Main!$L$3</f>
+        <v>587.26396075999992</v>
+      </c>
+      <c r="G169" s="6">
+        <f>[76]Main!$L$5-[76]Main!$L$6</f>
+        <v>277.88299999999998</v>
       </c>
       <c r="H169" s="8">
         <f>+F169-G169</f>
-        <v>220.39615336000003</v>
+        <v>309.38096075999994</v>
       </c>
       <c r="I169" s="3" t="s">
         <v>16</v>
@@ -10907,28 +11178,28 @@
     <row r="170" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B170" s="1">
         <f t="shared" si="8"/>
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E170" s="3">
-        <v>7.57</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F170" s="6">
-        <f>E170*[77]Main!$M$3</f>
-        <v>338.45983246000003</v>
-      </c>
-      <c r="G170" s="6">
-        <f>[77]Main!$M$5-[77]Main!$M$6</f>
-        <v>120.43700000000001</v>
+        <f>E170*[77]Main!$J$3</f>
+        <v>312.71415336000001</v>
+      </c>
+      <c r="G170" s="8">
+        <f>+[77]Main!$J$5-[77]Main!$J$6</f>
+        <v>92.317999999999998</v>
       </c>
       <c r="H170" s="8">
-        <f t="shared" ref="H170:H175" si="10">+F170-G170</f>
-        <v>218.02283246000002</v>
+        <f>+F170-G170</f>
+        <v>220.39615336000003</v>
       </c>
       <c r="I170" s="3" t="s">
         <v>16</v>
@@ -10937,28 +11208,28 @@
     <row r="171" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B171" s="1">
         <f t="shared" si="8"/>
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E171" s="7">
-        <v>0.7</v>
+        <v>245</v>
+      </c>
+      <c r="E171" s="3">
+        <v>7.57</v>
       </c>
       <c r="F171" s="6">
         <f>E171*[78]Main!$M$3</f>
-        <v>128.9392503</v>
+        <v>338.45983246000003</v>
       </c>
       <c r="G171" s="6">
         <f>[78]Main!$M$5-[78]Main!$M$6</f>
-        <v>-59.50200000000001</v>
+        <v>120.43700000000001</v>
       </c>
       <c r="H171" s="8">
-        <f t="shared" si="10"/>
-        <v>188.44125030000001</v>
+        <f t="shared" ref="H171:H176" si="10">+F171-G171</f>
+        <v>218.02283246000002</v>
       </c>
       <c r="I171" s="3" t="s">
         <v>16</v>
@@ -10967,28 +11238,28 @@
     <row r="172" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B172" s="1">
         <f t="shared" si="8"/>
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E172" s="3">
-        <v>1.98</v>
+        <v>247</v>
+      </c>
+      <c r="E172" s="7">
+        <v>0.7</v>
       </c>
       <c r="F172" s="6">
-        <f>E172*[79]Main!$N$3</f>
-        <v>39.757463459999997</v>
+        <f>E172*[79]Main!$M$3</f>
+        <v>128.9392503</v>
       </c>
       <c r="G172" s="6">
-        <f>[79]Main!$N$5-[79]Main!$N$6</f>
-        <v>15.942</v>
+        <f>[79]Main!$M$5-[79]Main!$M$6</f>
+        <v>-59.50200000000001</v>
       </c>
       <c r="H172" s="8">
         <f t="shared" si="10"/>
-        <v>23.815463459999997</v>
+        <v>188.44125030000001</v>
       </c>
       <c r="I172" s="3" t="s">
         <v>16</v>
@@ -10996,29 +11267,29 @@
     </row>
     <row r="173" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B173" s="1">
-        <f t="shared" ref="B173:B213" si="11">B172+1</f>
-        <v>163</v>
+        <f t="shared" si="8"/>
+        <v>125</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E173" s="3">
-        <v>0.62</v>
+        <v>1.98</v>
       </c>
       <c r="F173" s="6">
-        <f>E173*[80]Main!$L$3</f>
-        <v>30.1881658</v>
+        <f>E173*[80]Main!$N$3</f>
+        <v>39.757463459999997</v>
       </c>
       <c r="G173" s="6">
-        <f>[80]Main!$L$5-[80]Main!$L$6</f>
-        <v>13.262999999999998</v>
+        <f>[80]Main!$N$5-[80]Main!$N$6</f>
+        <v>15.942</v>
       </c>
       <c r="H173" s="8">
         <f t="shared" si="10"/>
-        <v>16.925165800000002</v>
+        <v>23.815463459999997</v>
       </c>
       <c r="I173" s="3" t="s">
         <v>16</v>
@@ -11026,29 +11297,29 @@
     </row>
     <row r="174" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B174" s="1">
-        <f t="shared" si="11"/>
-        <v>164</v>
+        <f t="shared" ref="B174:B214" si="11">B173+1</f>
+        <v>126</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E174" s="3">
-        <v>6.12</v>
+        <v>0.62</v>
       </c>
       <c r="F174" s="6">
-        <f>E174*[81]Main!$M$3</f>
-        <v>125.46108324000001</v>
+        <f>E174*[81]Main!$L$3</f>
+        <v>30.1881658</v>
       </c>
       <c r="G174" s="6">
-        <f>[81]Main!$M$5-[81]Main!$M$6</f>
-        <v>131.17699999999999</v>
+        <f>[81]Main!$L$5-[81]Main!$L$6</f>
+        <v>13.262999999999998</v>
       </c>
       <c r="H174" s="8">
         <f t="shared" si="10"/>
-        <v>-5.7159167599999847</v>
+        <v>16.925165800000002</v>
       </c>
       <c r="I174" s="3" t="s">
         <v>16</v>
@@ -11057,28 +11328,28 @@
     <row r="175" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B175" s="1">
         <f t="shared" si="11"/>
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E175" s="3">
-        <v>0.98</v>
+        <v>6.12</v>
       </c>
       <c r="F175" s="6">
         <f>E175*[82]Main!$M$3</f>
-        <v>20.935517539999999</v>
+        <v>125.46108324000001</v>
       </c>
       <c r="G175" s="6">
         <f>[82]Main!$M$5-[82]Main!$M$6</f>
-        <v>55.28</v>
+        <v>131.17699999999999</v>
       </c>
       <c r="H175" s="8">
         <f t="shared" si="10"/>
-        <v>-34.344482460000002</v>
+        <v>-5.7159167599999847</v>
       </c>
       <c r="I175" s="3" t="s">
         <v>16</v>
@@ -11087,658 +11358,688 @@
     <row r="176" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B176" s="1">
         <f t="shared" si="11"/>
-        <v>166</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>256</v>
+        <v>128</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E176" s="3">
-        <v>0.61</v>
+        <v>0.98</v>
+      </c>
+      <c r="F176" s="6">
+        <f>E176*[83]Main!$M$3</f>
+        <v>20.935517539999999</v>
+      </c>
+      <c r="G176" s="6">
+        <f>[83]Main!$M$5-[83]Main!$M$6</f>
+        <v>55.28</v>
+      </c>
+      <c r="H176" s="8">
+        <f t="shared" si="10"/>
+        <v>-34.344482460000002</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B177" s="1">
         <f t="shared" si="11"/>
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E177" s="3">
-        <v>5.55</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="178" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B178" s="1">
         <f t="shared" si="11"/>
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="D178" t="s">
-        <v>357</v>
-      </c>
-      <c r="E178" s="7">
-        <v>4.2</v>
+        <v>258</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E178" s="3">
+        <v>5.55</v>
       </c>
     </row>
     <row r="179" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B179" s="1">
         <f t="shared" si="11"/>
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D179" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="E179" s="7">
-        <v>4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="180" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B180" s="1">
         <f t="shared" si="11"/>
-        <v>170</v>
-      </c>
-      <c r="C180" t="s">
-        <v>344</v>
+        <v>132</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="D180" t="s">
-        <v>345</v>
-      </c>
-      <c r="E180" s="3">
-        <v>20.18</v>
+        <v>341</v>
+      </c>
+      <c r="E180" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B181" s="1">
         <f t="shared" si="11"/>
-        <v>171</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>390</v>
+        <v>133</v>
+      </c>
+      <c r="C181" t="s">
+        <v>344</v>
+      </c>
+      <c r="D181" t="s">
+        <v>345</v>
       </c>
       <c r="E181" s="3">
-        <v>25.85</v>
+        <v>20.18</v>
       </c>
     </row>
     <row r="182" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B182" s="1">
         <f t="shared" si="11"/>
-        <v>172</v>
-      </c>
-      <c r="C182" t="s">
-        <v>395</v>
-      </c>
-      <c r="D182" t="s">
-        <v>396</v>
+        <v>134</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="E182" s="3">
-        <v>9.26</v>
-      </c>
-      <c r="F182" s="3">
-        <v>204</v>
+        <v>25.85</v>
       </c>
     </row>
     <row r="183" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B183" s="1">
         <f t="shared" si="11"/>
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="C183" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="D183" t="s">
-        <v>441</v>
+        <v>396</v>
+      </c>
+      <c r="E183" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="F183" s="3">
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <f t="shared" si="11"/>
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="C184" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D184" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="185" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B185" s="1">
         <f t="shared" si="11"/>
-        <v>175</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>407</v>
+        <v>137</v>
+      </c>
+      <c r="C185" t="s">
+        <v>443</v>
+      </c>
+      <c r="D185" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="186" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B186" s="1">
         <f t="shared" si="11"/>
-        <v>176</v>
-      </c>
-      <c r="C186" t="s">
-        <v>436</v>
-      </c>
-      <c r="D186" t="s">
-        <v>437</v>
-      </c>
-      <c r="E186" s="3">
-        <v>20.32</v>
+        <v>138</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="187" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B187" s="1">
         <f t="shared" si="11"/>
-        <v>177</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>517</v>
+        <v>139</v>
+      </c>
+      <c r="C187" t="s">
+        <v>436</v>
+      </c>
+      <c r="D187" t="s">
+        <v>437</v>
+      </c>
+      <c r="E187" s="3">
+        <v>20.32</v>
       </c>
     </row>
     <row r="188" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B188" s="1">
         <f t="shared" si="11"/>
-        <v>178</v>
-      </c>
-      <c r="C188" t="s">
-        <v>523</v>
-      </c>
-      <c r="D188" t="s">
-        <v>524</v>
+        <v>140</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="189" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B189" s="1">
         <f t="shared" si="11"/>
-        <v>179</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>535</v>
+        <v>141</v>
+      </c>
+      <c r="C189" t="s">
+        <v>523</v>
+      </c>
+      <c r="D189" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="190" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B190" s="1">
         <f t="shared" si="11"/>
-        <v>180</v>
-      </c>
-      <c r="C190" t="s">
-        <v>539</v>
-      </c>
-      <c r="D190" t="s">
-        <v>540</v>
+        <v>142</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="191" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B191" s="1">
         <f t="shared" si="11"/>
-        <v>181</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>544</v>
+        <v>143</v>
+      </c>
+      <c r="C191" t="s">
+        <v>539</v>
+      </c>
+      <c r="D191" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="192" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B192" s="1">
         <f t="shared" si="11"/>
-        <v>182</v>
-      </c>
-      <c r="C192" t="s">
-        <v>546</v>
-      </c>
-      <c r="D192" t="s">
-        <v>545</v>
+        <v>144</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193" s="1">
         <f t="shared" si="11"/>
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="C193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D193" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B194" s="1">
         <f t="shared" si="11"/>
-        <v>184</v>
+        <v>146</v>
       </c>
       <c r="C194" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D194" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B195" s="1">
         <f t="shared" si="11"/>
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C195" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D195" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B196" s="1">
         <f t="shared" si="11"/>
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C196" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D196" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B197" s="1">
         <f t="shared" si="11"/>
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C197" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D197" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B198" s="1">
         <f t="shared" si="11"/>
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="C198" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D198" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B199" s="1">
         <f t="shared" si="11"/>
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="C199" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D199" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B200" s="1">
         <f t="shared" si="11"/>
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="C200" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D200" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B201" s="1">
         <f t="shared" si="11"/>
-        <v>191</v>
+        <v>153</v>
       </c>
       <c r="C201" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D201" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B202" s="1">
         <f t="shared" si="11"/>
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="C202" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D202" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B203" s="1">
         <f t="shared" si="11"/>
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="C203" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D203" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B204" s="1">
         <f t="shared" si="11"/>
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C204" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D204" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B205" s="1">
         <f t="shared" si="11"/>
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="C205" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D205" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B206" s="1">
         <f t="shared" si="11"/>
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="C206" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D206" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B207" s="1">
         <f t="shared" si="11"/>
-        <v>197</v>
+        <v>159</v>
       </c>
       <c r="C207" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D207" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B208" s="1">
         <f t="shared" si="11"/>
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="C208" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D208" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="1">
         <f t="shared" si="11"/>
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="C209" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D209" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="1">
         <f t="shared" si="11"/>
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C210" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D210" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="1">
         <f t="shared" si="11"/>
-        <v>201</v>
+        <v>163</v>
       </c>
       <c r="C211" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D211" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" s="1">
         <f t="shared" si="11"/>
-        <v>202</v>
+        <v>164</v>
       </c>
       <c r="C212" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D212" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" s="1">
         <f t="shared" si="11"/>
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="C213" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D213" t="s">
-        <v>588</v>
-      </c>
-      <c r="E213"/>
+        <v>586</v>
+      </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" s="1">
-        <f t="shared" ref="B214:B227" si="12">B213+1</f>
-        <v>204</v>
+        <f t="shared" si="11"/>
+        <v>166</v>
       </c>
       <c r="C214" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D214" t="s">
-        <v>589</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="E214"/>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" s="1">
-        <f t="shared" si="12"/>
-        <v>205</v>
+        <f t="shared" ref="B215:B228" si="12">B214+1</f>
+        <v>167</v>
       </c>
       <c r="C215" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D215" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" s="1">
         <f t="shared" si="12"/>
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C216" t="s">
-        <v>356</v>
+        <v>591</v>
       </c>
       <c r="D216" t="s">
-        <v>357</v>
+        <v>592</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" s="1">
         <f t="shared" si="12"/>
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="C217" t="s">
-        <v>593</v>
+        <v>356</v>
       </c>
       <c r="D217" t="s">
-        <v>594</v>
+        <v>357</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="1">
         <f t="shared" si="12"/>
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="C218" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D218" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B219" s="1">
         <f t="shared" si="12"/>
-        <v>209</v>
+        <v>171</v>
       </c>
       <c r="C219" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D219" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220" s="1">
         <f t="shared" si="12"/>
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="C220" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D220" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B221" s="1">
         <f t="shared" si="12"/>
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="C221" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D221" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B222" s="1">
         <f t="shared" si="12"/>
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="C222" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D222" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B223" s="1">
         <f t="shared" si="12"/>
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="C223" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D223" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B224" s="1">
         <f t="shared" si="12"/>
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="C224" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D224" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B225" s="1">
         <f t="shared" si="12"/>
-        <v>215</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>610</v>
+        <v>177</v>
+      </c>
+      <c r="C225" t="s">
+        <v>607</v>
+      </c>
+      <c r="D225" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B226" s="1">
         <f t="shared" si="12"/>
-        <v>216</v>
-      </c>
-      <c r="C226" t="s">
-        <v>611</v>
-      </c>
-      <c r="D226" t="s">
-        <v>612</v>
+        <v>178</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B227" s="1">
         <f t="shared" si="12"/>
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="C227" t="s">
+        <v>611</v>
+      </c>
+      <c r="D227" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B228" s="1">
+        <f t="shared" si="12"/>
+        <v>180</v>
+      </c>
+      <c r="C228" t="s">
         <v>613</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D228" t="s">
         <v>614</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A125:AC152">
-    <sortCondition descending="1" ref="F125:F152"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A125:AC153">
+    <sortCondition descending="1" ref="F125:F153"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="Q2:V2"/>
@@ -11765,34 +12066,34 @@
     <hyperlink ref="C53" r:id="rId18" xr:uid="{6EF35D30-7113-4CE8-9077-C5BE97F74D36}"/>
     <hyperlink ref="C25" r:id="rId19" xr:uid="{1F769FA7-6B90-4B6B-9BCC-7D6679675B06}"/>
     <hyperlink ref="C26" r:id="rId20" xr:uid="{61277D68-67DC-475B-9B61-B7E2F3017110}"/>
-    <hyperlink ref="C169" r:id="rId21" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
-    <hyperlink ref="C172" r:id="rId22" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
-    <hyperlink ref="C168" r:id="rId23" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
-    <hyperlink ref="C173" r:id="rId24" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
-    <hyperlink ref="C170" r:id="rId25" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
-    <hyperlink ref="C175" r:id="rId26" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
-    <hyperlink ref="C166" r:id="rId27" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
-    <hyperlink ref="C174" r:id="rId28" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
-    <hyperlink ref="C171" r:id="rId29" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
+    <hyperlink ref="C170" r:id="rId21" xr:uid="{14A63DAF-63A6-4B91-A2AF-AE28EA251457}"/>
+    <hyperlink ref="C173" r:id="rId22" xr:uid="{4ACA7C7F-E42A-4687-A776-AB8065DB40FF}"/>
+    <hyperlink ref="C169" r:id="rId23" xr:uid="{B3421391-7EC0-4253-8F62-5ED45A5BFA02}"/>
+    <hyperlink ref="C174" r:id="rId24" xr:uid="{F6A45FC7-B73C-4143-9CAB-B3ADA19B5FD7}"/>
+    <hyperlink ref="C171" r:id="rId25" xr:uid="{BBD267CB-7407-4913-9D05-6A6AA380019F}"/>
+    <hyperlink ref="C176" r:id="rId26" xr:uid="{85368858-6D0F-4ABE-975C-AE5530342445}"/>
+    <hyperlink ref="C167" r:id="rId27" xr:uid="{8B5BC1F5-14D4-45A0-B224-31FAF227EAF3}"/>
+    <hyperlink ref="C175" r:id="rId28" xr:uid="{D5FB3BFE-F0A8-4C09-90A1-9F506EF0ADE4}"/>
+    <hyperlink ref="C172" r:id="rId29" xr:uid="{11598046-2AED-42E7-ACA5-251A20A59427}"/>
     <hyperlink ref="C55" r:id="rId30" xr:uid="{A1C90F9B-FBBF-4C72-9A11-3798F692A0D2}"/>
     <hyperlink ref="C62" r:id="rId31" xr:uid="{F7B6503D-1F84-47C4-B87E-BDA7159D1B9F}"/>
     <hyperlink ref="C47" r:id="rId32" xr:uid="{D0EE43E7-C3F5-4256-99AE-DDCA9EC11DCF}"/>
     <hyperlink ref="C35" r:id="rId33" xr:uid="{1C25970A-A568-4869-A34A-5C6C7551D812}"/>
-    <hyperlink ref="C153" r:id="rId34" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
+    <hyperlink ref="C154" r:id="rId34" xr:uid="{C3A06396-38CD-486E-9F4F-233A79292B4F}"/>
     <hyperlink ref="C115" r:id="rId35" xr:uid="{B83625D8-44D2-4842-9139-F29C8D5F2D8E}"/>
-    <hyperlink ref="C155" r:id="rId36" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
+    <hyperlink ref="C156" r:id="rId36" xr:uid="{5FF32E6A-C6C7-4793-8271-BD230B9C7641}"/>
     <hyperlink ref="C64" r:id="rId37" xr:uid="{E5739E03-9FE4-4D05-90C8-36ABF7D078CB}"/>
-    <hyperlink ref="C66" r:id="rId38" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
-    <hyperlink ref="C162" r:id="rId39" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
+    <hyperlink ref="C67" r:id="rId38" xr:uid="{25285F59-771C-40DB-8B78-E1E454C61406}"/>
+    <hyperlink ref="C163" r:id="rId39" xr:uid="{C000061C-001D-4088-90A4-B672D181D3C5}"/>
     <hyperlink ref="C30" r:id="rId40" xr:uid="{6A1F812B-EA91-4B3C-B4DC-88F792A7D0DE}"/>
     <hyperlink ref="C46" r:id="rId41" xr:uid="{6930A656-C59A-465F-8634-B30B4FEF47BC}"/>
     <hyperlink ref="C118" r:id="rId42" xr:uid="{559FAD8A-D620-4B93-BE14-CC22630BD57E}"/>
     <hyperlink ref="C9" r:id="rId43" xr:uid="{467EEBCD-6BD7-4E71-B2C9-FCF3DB57F059}"/>
-    <hyperlink ref="C167" r:id="rId44" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
+    <hyperlink ref="C168" r:id="rId44" xr:uid="{6A576FDB-A573-4A00-8381-4BECF13B35A1}"/>
     <hyperlink ref="C23" r:id="rId45" xr:uid="{994E2867-C411-41E7-8332-43A0B3B0CC2B}"/>
     <hyperlink ref="C117" r:id="rId46" xr:uid="{51C9506E-5D60-43F8-BADA-7F72A25DAFF6}"/>
     <hyperlink ref="C114" r:id="rId47" xr:uid="{9E4325F2-98CF-4735-96D0-66A9DC5A8E86}"/>
-    <hyperlink ref="C156" r:id="rId48" xr:uid="{6D062383-838D-42C7-BFCD-E5C9DC258548}"/>
+    <hyperlink ref="C157" r:id="rId48" xr:uid="{6D062383-838D-42C7-BFCD-E5C9DC258548}"/>
     <hyperlink ref="C34" r:id="rId49" xr:uid="{3F36D809-73FC-441C-88D2-EEB42A40734A}"/>
     <hyperlink ref="C21" r:id="rId50" xr:uid="{5D73AAA9-EBCA-4613-83CF-E75D37F58B6D}"/>
     <hyperlink ref="C37" r:id="rId51" xr:uid="{C216ACFE-A1E7-4490-95CC-33302FDEACB6}"/>
@@ -11810,15 +12111,15 @@
     <hyperlink ref="C36" r:id="rId63" xr:uid="{BC97A7B7-8716-48D0-BA90-60A75E6A24CE}"/>
     <hyperlink ref="C45" r:id="rId64" xr:uid="{AD16E898-B1E4-4F25-8E21-E2BC1C6FE9AD}"/>
     <hyperlink ref="C52" r:id="rId65" xr:uid="{E9207892-DA1F-48D2-B2C3-EFA59FCA8A47}"/>
-    <hyperlink ref="C68" r:id="rId66" xr:uid="{DE2D1DDB-B5B7-4055-B885-0CD9E7670070}"/>
+    <hyperlink ref="C69" r:id="rId66" xr:uid="{DE2D1DDB-B5B7-4055-B885-0CD9E7670070}"/>
     <hyperlink ref="C38" r:id="rId67" xr:uid="{9DD12163-063E-4F73-89A5-34D8E8AC0534}"/>
     <hyperlink ref="C39" r:id="rId68" xr:uid="{30732F31-0D9B-4774-8215-75872BFC9B96}"/>
     <hyperlink ref="C61" r:id="rId69" xr:uid="{1D3A6A47-22C9-4CC1-94BD-20DE3BB08016}"/>
     <hyperlink ref="C58" r:id="rId70" xr:uid="{27FB3DB4-8430-405F-9558-F31A0B69ED5F}"/>
     <hyperlink ref="C54" r:id="rId71" xr:uid="{144D13FD-59BD-499B-A0B4-B06985623C68}"/>
-    <hyperlink ref="C154" r:id="rId72" xr:uid="{E48CD1EB-CFA1-47B1-BD8B-09F09CDD4FA4}"/>
+    <hyperlink ref="C155" r:id="rId72" xr:uid="{E48CD1EB-CFA1-47B1-BD8B-09F09CDD4FA4}"/>
     <hyperlink ref="C113" r:id="rId73" xr:uid="{6E9AFF81-F520-4A86-9FC2-D5CFE68E7EB7}"/>
-    <hyperlink ref="C65" r:id="rId74" xr:uid="{ED527D70-0B51-4151-8378-8C40B68FF19D}"/>
+    <hyperlink ref="C66" r:id="rId74" xr:uid="{ED527D70-0B51-4151-8378-8C40B68FF19D}"/>
     <hyperlink ref="C51" r:id="rId75" xr:uid="{A902B26E-CA39-4DC5-9F23-4459D8D315E8}"/>
     <hyperlink ref="C56" r:id="rId76" xr:uid="{5F0313F8-3376-4F67-9822-E1412CAA5959}"/>
     <hyperlink ref="C94" r:id="rId77" xr:uid="{AE3A3FD9-E651-4A72-81DB-B29CC61B516B}"/>
@@ -11826,7 +12127,7 @@
     <hyperlink ref="C96" r:id="rId79" xr:uid="{C6F461C3-F385-4BE1-8914-0B22F9A9FF52}"/>
     <hyperlink ref="C44" r:id="rId80" xr:uid="{98D02B7D-F218-457E-B156-7FE773CF515A}"/>
     <hyperlink ref="C43" r:id="rId81" xr:uid="{02CB6FD9-C55D-44A1-9F2E-6A96A222EE6B}"/>
-    <hyperlink ref="C67" r:id="rId82" xr:uid="{C691BA46-1169-4CAF-84E5-2A83E1B5404A}"/>
+    <hyperlink ref="C68" r:id="rId82" xr:uid="{C691BA46-1169-4CAF-84E5-2A83E1B5404A}"/>
     <hyperlink ref="C50" r:id="rId83" xr:uid="{425EA3DE-2A59-4B96-B380-B688A4EDE233}"/>
     <hyperlink ref="C49" r:id="rId84" xr:uid="{1F24E207-02BC-4A1F-B083-69F8E95AC067}"/>
     <hyperlink ref="C59" r:id="rId85" xr:uid="{CE56D1ED-1CAA-4667-A3D9-82426599D26C}"/>
@@ -11834,13 +12135,1546 @@
     <hyperlink ref="C95" r:id="rId87" xr:uid="{ED810682-5208-4265-9E0E-6746A399EA34}"/>
     <hyperlink ref="C116" r:id="rId88" xr:uid="{44DEB74A-F098-4876-A279-D1E6237DF8DB}"/>
     <hyperlink ref="C63" r:id="rId89" xr:uid="{ADF59BEC-B8D8-4144-ADEB-041425B69409}"/>
+    <hyperlink ref="C65" r:id="rId90" xr:uid="{5448F263-AB4A-41FB-B7B9-A94746C9D9E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId90"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId91"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A489F4D5-421B-432D-9B8B-67BB999210AF}">
+  <dimension ref="A1:CC17"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>649</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>650</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>651</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>652</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" s="29">
+        <v>16</v>
+      </c>
+      <c r="F3" s="29">
+        <v>187.3</v>
+      </c>
+      <c r="G3" s="29">
+        <v>279.2</v>
+      </c>
+      <c r="H3" s="29">
+        <v>568.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="30">
+        <v>32.5</v>
+      </c>
+      <c r="F4" s="30">
+        <v>61.3</v>
+      </c>
+      <c r="G4" s="30">
+        <v>106.8</v>
+      </c>
+      <c r="H4" s="30">
+        <v>161.4</v>
+      </c>
+      <c r="I4" s="30">
+        <v>182.8</v>
+      </c>
+      <c r="J4" s="30">
+        <v>228.8</v>
+      </c>
+      <c r="K4" s="30">
+        <v>233</v>
+      </c>
+      <c r="L4" s="30">
+        <v>310</v>
+      </c>
+      <c r="M4" s="30">
+        <v>349</v>
+      </c>
+      <c r="N4" s="30">
+        <v>424.1</v>
+      </c>
+      <c r="O4" s="30">
+        <v>441.8</v>
+      </c>
+      <c r="P4" s="30">
+        <v>519.5</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="R4" s="30">
+        <v>628.29999999999995</v>
+      </c>
+      <c r="S4" s="30">
+        <v>605.1</v>
+      </c>
+      <c r="T4" s="30">
+        <v>654.4</v>
+      </c>
+      <c r="U4" s="30">
+        <v>716.4</v>
+      </c>
+      <c r="V4" s="30">
+        <v>721.2</v>
+      </c>
+      <c r="W4" s="30">
+        <v>709.3</v>
+      </c>
+      <c r="X4" s="30">
+        <v>744.4</v>
+      </c>
+      <c r="Y4" s="30">
+        <v>790.2</v>
+      </c>
+      <c r="Z4" s="30">
+        <v>830.8</v>
+      </c>
+      <c r="AA4" s="30">
+        <v>803.2</v>
+      </c>
+      <c r="AB4" s="30">
+        <v>867.7</v>
+      </c>
+      <c r="AC4" s="30">
+        <v>825.3</v>
+      </c>
+      <c r="AD4" s="30">
+        <v>984.6</v>
+      </c>
+      <c r="AE4" s="30">
+        <v>908.8</v>
+      </c>
+      <c r="AF4" s="30">
+        <v>1003.4</v>
+      </c>
+      <c r="AG4" s="30">
+        <v>1068.5999999999999</v>
+      </c>
+      <c r="AH4" s="30">
+        <v>1180.7</v>
+      </c>
+      <c r="AI4" s="30">
+        <v>1114.9000000000001</v>
+      </c>
+      <c r="AJ4" s="30">
+        <v>1223.0999999999999</v>
+      </c>
+      <c r="AK4" s="30">
+        <v>1235.8</v>
+      </c>
+      <c r="AL4" s="30">
+        <v>1420.4</v>
+      </c>
+      <c r="AM4" s="30">
+        <v>1328.2</v>
+      </c>
+      <c r="AN4" s="30">
+        <v>1497.2</v>
+      </c>
+      <c r="AO4" s="30">
+        <v>1375.8</v>
+      </c>
+      <c r="AP4" s="30">
+        <v>883.2</v>
+      </c>
+      <c r="AQ4" s="30">
+        <v>478.2</v>
+      </c>
+      <c r="AR4" s="30">
+        <v>401.3</v>
+      </c>
+      <c r="AS4" s="30">
+        <v>368</v>
+      </c>
+      <c r="AT4" s="30">
+        <v>367.3</v>
+      </c>
+      <c r="AU4" s="30">
+        <v>287</v>
+      </c>
+      <c r="AV4" s="30">
+        <v>274.10000000000002</v>
+      </c>
+      <c r="AW4" s="30">
+        <v>242.9</v>
+      </c>
+      <c r="AX4" s="30">
+        <v>223.6</v>
+      </c>
+      <c r="AY4" s="30">
+        <v>198.7</v>
+      </c>
+      <c r="AZ4" s="30">
+        <v>236.5</v>
+      </c>
+      <c r="BA4" s="30">
+        <v>313.5</v>
+      </c>
+      <c r="BB4" s="30">
+        <v>181.8</v>
+      </c>
+      <c r="BC4" s="30">
+        <v>174.6</v>
+      </c>
+      <c r="BD4" s="30">
+        <v>206.6</v>
+      </c>
+      <c r="BE4" s="30">
+        <v>183.2</v>
+      </c>
+      <c r="BF4" s="30">
+        <v>192.8</v>
+      </c>
+      <c r="BG4" s="30">
+        <v>169.6</v>
+      </c>
+      <c r="BH4" s="30">
+        <v>181.9</v>
+      </c>
+      <c r="BI4" s="30">
+        <v>172</v>
+      </c>
+      <c r="BJ4" s="30">
+        <v>184.5</v>
+      </c>
+      <c r="BK4" s="30">
+        <v>164.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>664</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="29">
+        <v>19.3</v>
+      </c>
+      <c r="F5" s="29">
+        <v>32.5</v>
+      </c>
+      <c r="G5" s="29">
+        <v>61.3</v>
+      </c>
+      <c r="H5" s="29">
+        <v>96.6</v>
+      </c>
+      <c r="I5" s="29">
+        <v>138.69999999999999</v>
+      </c>
+      <c r="J5" s="29">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="K5" s="29">
+        <v>172.5</v>
+      </c>
+      <c r="L5" s="29">
+        <v>146.5</v>
+      </c>
+      <c r="M5" s="29">
+        <v>220.1</v>
+      </c>
+      <c r="N5" s="29">
+        <v>263.89999999999998</v>
+      </c>
+      <c r="O5" s="29">
+        <v>307</v>
+      </c>
+      <c r="P5" s="29">
+        <v>252.5</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>353.8</v>
+      </c>
+      <c r="R5" s="29">
+        <v>340</v>
+      </c>
+      <c r="S5" s="29">
+        <v>420.1</v>
+      </c>
+      <c r="T5" s="29">
+        <v>443.5</v>
+      </c>
+      <c r="U5" s="29">
+        <v>395.2</v>
+      </c>
+      <c r="V5" s="29">
+        <v>454.5</v>
+      </c>
+      <c r="W5" s="29">
+        <v>495.3</v>
+      </c>
+      <c r="X5" s="29">
+        <v>403.2</v>
+      </c>
+      <c r="Y5" s="29">
+        <v>569.1</v>
+      </c>
+      <c r="Z5" s="29">
+        <v>593.1</v>
+      </c>
+      <c r="AA5" s="29">
+        <v>647.4</v>
+      </c>
+      <c r="AB5" s="29">
+        <v>488.1</v>
+      </c>
+      <c r="AC5" s="29">
+        <v>606.20000000000005</v>
+      </c>
+      <c r="AD5" s="29">
+        <v>679.9</v>
+      </c>
+      <c r="AE5" s="29">
+        <v>707.8</v>
+      </c>
+      <c r="AF5" s="29">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="30">
+        <v>21</v>
+      </c>
+      <c r="F6" s="30">
+        <v>29.7</v>
+      </c>
+      <c r="G6" s="30">
+        <v>57.7</v>
+      </c>
+      <c r="H6" s="30">
+        <v>84.5</v>
+      </c>
+      <c r="I6" s="30">
+        <v>83.1</v>
+      </c>
+      <c r="J6" s="30">
+        <v>109.4</v>
+      </c>
+      <c r="K6" s="30">
+        <v>133.9</v>
+      </c>
+      <c r="L6" s="30">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="M6" s="30">
+        <v>179.1</v>
+      </c>
+      <c r="N6" s="30">
+        <v>188</v>
+      </c>
+      <c r="O6" s="30">
+        <v>208.6</v>
+      </c>
+      <c r="P6" s="30">
+        <v>234.4</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>281.60000000000002</v>
+      </c>
+      <c r="R6" s="30">
+        <v>269</v>
+      </c>
+      <c r="S6" s="30">
+        <v>341.3</v>
+      </c>
+      <c r="T6" s="30">
+        <v>335.5</v>
+      </c>
+      <c r="U6" s="30">
+        <v>404.1</v>
+      </c>
+      <c r="V6" s="30">
+        <v>469.4</v>
+      </c>
+      <c r="W6" s="30">
+        <v>588.5</v>
+      </c>
+      <c r="X6" s="30">
+        <v>617.70000000000005</v>
+      </c>
+      <c r="Y6" s="30">
+        <v>808</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>750.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="29">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F7" s="29">
+        <v>18.3</v>
+      </c>
+      <c r="G7" s="29">
+        <v>44.3</v>
+      </c>
+      <c r="H7" s="29">
+        <v>73.7</v>
+      </c>
+      <c r="I7" s="29">
+        <v>112.5</v>
+      </c>
+      <c r="J7" s="29">
+        <v>143.6</v>
+      </c>
+      <c r="K7" s="29">
+        <v>201.3</v>
+      </c>
+      <c r="L7" s="29">
+        <v>243.6</v>
+      </c>
+      <c r="M7" s="29">
+        <v>337</v>
+      </c>
+      <c r="N7" s="29">
+        <v>372.9</v>
+      </c>
+      <c r="O7" s="29">
+        <v>480.2</v>
+      </c>
+      <c r="P7" s="29">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="Q7" s="29">
+        <v>649</v>
+      </c>
+      <c r="R7" s="29">
+        <v>678.3</v>
+      </c>
+      <c r="S7" s="29">
+        <v>779.8</v>
+      </c>
+      <c r="T7" s="29">
+        <v>816.2</v>
+      </c>
+      <c r="U7" s="29">
+        <v>924.7</v>
+      </c>
+      <c r="V7" s="29">
+        <v>879.7</v>
+      </c>
+      <c r="W7" s="29">
+        <v>1028.5</v>
+      </c>
+      <c r="X7" s="29">
+        <v>1011.5</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>1208.0999999999999</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>1229.4000000000001</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>1229.8</v>
+      </c>
+      <c r="AB7" s="29">
+        <v>1106.5999999999999</v>
+      </c>
+      <c r="AC7" s="29">
+        <v>1502.4</v>
+      </c>
+      <c r="AD7" s="29">
+        <v>1452.4</v>
+      </c>
+      <c r="AE7" s="29">
+        <v>1535.6</v>
+      </c>
+      <c r="AF7" s="29">
+        <v>1600.1</v>
+      </c>
+      <c r="AG7" s="29">
+        <v>1883.7</v>
+      </c>
+      <c r="AH7" s="29">
+        <v>1741.3</v>
+      </c>
+      <c r="AI7" s="29">
+        <v>1911.9</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>1850.4</v>
+      </c>
+      <c r="AK7" s="29">
+        <v>1936.2</v>
+      </c>
+      <c r="AL7" s="29">
+        <v>1977.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>671</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="30">
+        <v>11.6</v>
+      </c>
+      <c r="F8" s="30">
+        <v>17.8</v>
+      </c>
+      <c r="G8" s="30">
+        <v>40</v>
+      </c>
+      <c r="H8" s="30">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I8" s="30">
+        <v>93.9</v>
+      </c>
+      <c r="J8" s="30">
+        <v>111.2</v>
+      </c>
+      <c r="K8" s="30">
+        <v>122.3</v>
+      </c>
+      <c r="L8" s="30">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="M8" s="30">
+        <v>130</v>
+      </c>
+      <c r="N8" s="30">
+        <v>153</v>
+      </c>
+      <c r="O8" s="30">
+        <v>157</v>
+      </c>
+      <c r="P8" s="30">
+        <v>171.4</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>187.8</v>
+      </c>
+      <c r="R8" s="30">
+        <v>207.1</v>
+      </c>
+      <c r="S8" s="30">
+        <v>215</v>
+      </c>
+      <c r="T8" s="30">
+        <v>244.1</v>
+      </c>
+      <c r="U8" s="30">
+        <v>247.2</v>
+      </c>
+      <c r="V8" s="30">
+        <v>275</v>
+      </c>
+      <c r="W8" s="30">
+        <v>313.89999999999998</v>
+      </c>
+      <c r="X8" s="30">
+        <v>318.7</v>
+      </c>
+      <c r="Y8" s="30">
+        <v>335.3</v>
+      </c>
+      <c r="Z8" s="30">
+        <v>385.3</v>
+      </c>
+      <c r="AA8" s="30">
+        <v>461.9</v>
+      </c>
+      <c r="AB8" s="30">
+        <v>523.6</v>
+      </c>
+      <c r="AC8" s="30">
+        <v>527.4</v>
+      </c>
+      <c r="AD8" s="30">
+        <v>551.79999999999995</v>
+      </c>
+      <c r="AE8" s="30">
+        <v>560.29999999999995</v>
+      </c>
+      <c r="AF8" s="30">
+        <v>569</v>
+      </c>
+      <c r="AG8" s="30">
+        <v>579.9</v>
+      </c>
+      <c r="AH8" s="30">
+        <v>613.4</v>
+      </c>
+      <c r="AI8" s="30">
+        <v>629.70000000000005</v>
+      </c>
+      <c r="AJ8" s="30">
+        <v>638.1</v>
+      </c>
+      <c r="AK8" s="30">
+        <v>606.79999999999995</v>
+      </c>
+      <c r="AL8" s="30">
+        <v>659.5</v>
+      </c>
+      <c r="AM8" s="30">
+        <v>643.6</v>
+      </c>
+      <c r="AN8" s="30">
+        <v>684.3</v>
+      </c>
+      <c r="AO8" s="30">
+        <v>616.79999999999995</v>
+      </c>
+      <c r="AP8" s="30">
+        <v>669.4</v>
+      </c>
+      <c r="AQ8" s="30">
+        <v>690.5</v>
+      </c>
+      <c r="AR8" s="30">
+        <v>726.2</v>
+      </c>
+      <c r="AS8" s="30">
+        <v>632</v>
+      </c>
+      <c r="AT8" s="30">
+        <v>711.6</v>
+      </c>
+      <c r="AU8" s="30">
+        <v>723.4</v>
+      </c>
+      <c r="AV8" s="30">
+        <v>725</v>
+      </c>
+      <c r="AW8" s="30">
+        <v>573</v>
+      </c>
+      <c r="AX8" s="30">
+        <v>664.3</v>
+      </c>
+      <c r="AY8" s="30">
+        <v>628.5</v>
+      </c>
+      <c r="AZ8" s="30">
+        <v>627.20000000000005</v>
+      </c>
+      <c r="BA8" s="30">
+        <v>564.20000000000005</v>
+      </c>
+      <c r="BB8" s="30">
+        <v>607.1</v>
+      </c>
+      <c r="BC8" s="30">
+        <v>570.4</v>
+      </c>
+      <c r="BD8" s="30">
+        <v>541.6</v>
+      </c>
+      <c r="BE8" s="30">
+        <v>489.9</v>
+      </c>
+      <c r="BF8" s="30">
+        <v>532.9</v>
+      </c>
+      <c r="BG8" s="30">
+        <v>514.5</v>
+      </c>
+      <c r="BH8" s="30">
+        <v>525.20000000000005</v>
+      </c>
+      <c r="BI8" s="30">
+        <v>499.6</v>
+      </c>
+      <c r="BJ8" s="30">
+        <v>555.9</v>
+      </c>
+      <c r="BK8" s="30">
+        <v>520.5</v>
+      </c>
+      <c r="BL8" s="30">
+        <v>556.9</v>
+      </c>
+      <c r="BM8" s="30">
+        <v>499.2</v>
+      </c>
+      <c r="BN8" s="30">
+        <v>577.79999999999995</v>
+      </c>
+      <c r="BO8" s="30">
+        <v>508.2</v>
+      </c>
+      <c r="BP8" s="30">
+        <v>530.70000000000005</v>
+      </c>
+      <c r="BQ8" s="30">
+        <v>560.1</v>
+      </c>
+      <c r="BR8" s="30">
+        <v>539.1</v>
+      </c>
+      <c r="BS8" s="30">
+        <v>578</v>
+      </c>
+      <c r="BT8" s="30">
+        <v>652.70000000000005</v>
+      </c>
+      <c r="BU8" s="30">
+        <v>559</v>
+      </c>
+      <c r="BV8" s="30">
+        <v>610.6</v>
+      </c>
+      <c r="BW8" s="30">
+        <v>457</v>
+      </c>
+      <c r="BX8" s="30">
+        <v>434.9</v>
+      </c>
+      <c r="BY8" s="30">
+        <v>343.9</v>
+      </c>
+      <c r="BZ8" s="30">
+        <v>227.7</v>
+      </c>
+      <c r="CA8" s="30">
+        <v>119.4</v>
+      </c>
+      <c r="CB8" s="30">
+        <v>236.6</v>
+      </c>
+      <c r="CC8" s="30">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="30">
+        <v>13.7</v>
+      </c>
+      <c r="F9" s="30">
+        <v>28.4</v>
+      </c>
+      <c r="G9" s="30">
+        <v>33.6</v>
+      </c>
+      <c r="H9" s="30">
+        <v>67.5</v>
+      </c>
+      <c r="I9" s="30">
+        <v>87.7</v>
+      </c>
+      <c r="J9" s="30">
+        <v>111.2</v>
+      </c>
+      <c r="K9" s="30">
+        <v>117.5</v>
+      </c>
+      <c r="L9" s="30">
+        <v>131</v>
+      </c>
+      <c r="M9" s="30">
+        <v>147</v>
+      </c>
+      <c r="N9" s="30">
+        <v>159</v>
+      </c>
+      <c r="O9" s="30">
+        <v>177.1</v>
+      </c>
+      <c r="P9" s="30">
+        <v>171.2</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>186.3</v>
+      </c>
+      <c r="R9" s="30">
+        <v>196</v>
+      </c>
+      <c r="S9" s="30">
+        <v>204.8</v>
+      </c>
+      <c r="T9" s="30">
+        <v>183.6</v>
+      </c>
+      <c r="U9" s="30">
+        <v>218.8</v>
+      </c>
+      <c r="V9" s="30">
+        <v>198.4</v>
+      </c>
+      <c r="W9" s="30">
+        <v>220.6</v>
+      </c>
+      <c r="X9" s="30">
+        <v>198.3</v>
+      </c>
+      <c r="Y9" s="30">
+        <v>241.8</v>
+      </c>
+      <c r="Z9" s="30">
+        <v>240</v>
+      </c>
+      <c r="AA9" s="30">
+        <v>245.1</v>
+      </c>
+      <c r="AB9" s="30">
+        <v>239</v>
+      </c>
+      <c r="AC9" s="30">
+        <v>256.7</v>
+      </c>
+      <c r="AD9" s="30">
+        <v>252.7</v>
+      </c>
+      <c r="AE9" s="30">
+        <v>284.2</v>
+      </c>
+      <c r="AF9" s="30">
+        <v>240.5</v>
+      </c>
+      <c r="AG9" s="30">
+        <v>268.7</v>
+      </c>
+      <c r="AH9" s="30">
+        <v>253.4</v>
+      </c>
+      <c r="AI9" s="30">
+        <v>270.39999999999998</v>
+      </c>
+      <c r="AJ9" s="30">
+        <v>230.3</v>
+      </c>
+      <c r="AK9" s="30">
+        <v>231.3</v>
+      </c>
+      <c r="AL9" s="30">
+        <v>232.1</v>
+      </c>
+      <c r="AM9" s="30">
+        <v>277.8</v>
+      </c>
+      <c r="AN9" s="30">
+        <v>236.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>670</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="30">
+        <v>25.7</v>
+      </c>
+      <c r="F10" s="30">
+        <v>36</v>
+      </c>
+      <c r="G10" s="30">
+        <v>52</v>
+      </c>
+      <c r="H10" s="30">
+        <v>62</v>
+      </c>
+      <c r="I10" s="30">
+        <f>M10/1.34</f>
+        <v>68.731343283582078</v>
+      </c>
+      <c r="J10" s="30">
+        <v>72</v>
+      </c>
+      <c r="K10" s="30">
+        <v>152.1</v>
+      </c>
+      <c r="L10" s="30">
+        <v>87.1</v>
+      </c>
+      <c r="M10" s="30">
+        <v>92.1</v>
+      </c>
+      <c r="N10" s="30">
+        <v>82.7</v>
+      </c>
+      <c r="O10" s="30">
+        <v>101.2</v>
+      </c>
+      <c r="P10" s="30">
+        <v>109.2</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>103</v>
+      </c>
+      <c r="R10" s="30">
+        <v>97.5</v>
+      </c>
+      <c r="S10" s="30">
+        <v>114.6</v>
+      </c>
+      <c r="T10" s="30">
+        <v>115.8</v>
+      </c>
+      <c r="U10" s="30">
+        <v>120.5</v>
+      </c>
+      <c r="V10" s="30">
+        <v>115.7</v>
+      </c>
+      <c r="W10" s="30">
+        <v>106.9</v>
+      </c>
+      <c r="X10" s="30">
+        <v>102.7</v>
+      </c>
+      <c r="Y10" s="30">
+        <v>105.3</v>
+      </c>
+      <c r="Z10" s="30">
+        <v>101.8</v>
+      </c>
+      <c r="AA10" s="30">
+        <v>103.9</v>
+      </c>
+      <c r="AB10" s="30">
+        <v>106.7</v>
+      </c>
+      <c r="AC10" s="30">
+        <v>110.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F11" s="29">
+        <v>14.2</v>
+      </c>
+      <c r="G11" s="29">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="H11" s="29">
+        <v>47.7</v>
+      </c>
+      <c r="I11" s="29">
+        <v>66.3</v>
+      </c>
+      <c r="J11" s="29">
+        <v>74</v>
+      </c>
+      <c r="K11" s="29">
+        <v>87.4</v>
+      </c>
+      <c r="L11" s="29">
+        <v>91.5</v>
+      </c>
+      <c r="M11" s="29">
+        <v>109.9</v>
+      </c>
+      <c r="N11" s="29">
+        <v>119.5</v>
+      </c>
+      <c r="O11" s="29">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="P11" s="29">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>161.5</v>
+      </c>
+      <c r="R11" s="29">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="S11" s="29">
+        <v>157.5</v>
+      </c>
+      <c r="T11" s="29">
+        <v>168.5</v>
+      </c>
+      <c r="U11" s="29">
+        <v>175.6</v>
+      </c>
+      <c r="V11" s="29">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="29">
+        <v>9.9</v>
+      </c>
+      <c r="F12" s="29">
+        <v>40.1</v>
+      </c>
+      <c r="G12" s="29">
+        <v>46.6</v>
+      </c>
+      <c r="H12" s="29">
+        <v>37.4</v>
+      </c>
+      <c r="I12" s="29">
+        <v>57.4</v>
+      </c>
+      <c r="J12" s="29">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="K12" s="29">
+        <v>84.4</v>
+      </c>
+      <c r="L12" s="29">
+        <v>102.8</v>
+      </c>
+      <c r="M12" s="29">
+        <v>109.7</v>
+      </c>
+      <c r="N12" s="29">
+        <v>105</v>
+      </c>
+      <c r="O12" s="29">
+        <v>125.6</v>
+      </c>
+      <c r="P12" s="29">
+        <v>77.8</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>85.5</v>
+      </c>
+      <c r="R12" s="29">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="S12" s="29">
+        <v>76.8</v>
+      </c>
+      <c r="T12" s="29">
+        <v>57.5</v>
+      </c>
+      <c r="U12" s="29">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>661</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1.9</v>
+      </c>
+      <c r="F13" s="29">
+        <v>4.8</v>
+      </c>
+      <c r="G13" s="29">
+        <v>16.2</v>
+      </c>
+      <c r="H13" s="29">
+        <v>23</v>
+      </c>
+      <c r="I13" s="29">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="J13" s="29">
+        <v>44.7</v>
+      </c>
+      <c r="K13" s="29">
+        <v>55.6</v>
+      </c>
+      <c r="L13" s="29">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="M13" s="29">
+        <v>82.1</v>
+      </c>
+      <c r="N13" s="29">
+        <v>102.4</v>
+      </c>
+      <c r="O13" s="29">
+        <v>114.6</v>
+      </c>
+      <c r="P13" s="29">
+        <v>127.8</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="R13" s="29">
+        <v>145</v>
+      </c>
+      <c r="S13" s="29">
+        <v>162</v>
+      </c>
+      <c r="T13" s="29">
+        <v>192.2</v>
+      </c>
+      <c r="U13" s="29">
+        <v>193.8</v>
+      </c>
+      <c r="V13" s="29">
+        <v>208.4</v>
+      </c>
+      <c r="W13" s="29">
+        <v>406.9</v>
+      </c>
+      <c r="X13" s="29">
+        <v>306</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>255.6</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>186.2</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>182.9</v>
+      </c>
+      <c r="AB13" s="29">
+        <v>205.8</v>
+      </c>
+      <c r="AC13" s="29">
+        <v>228.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>663</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="30">
+        <v>6.3</v>
+      </c>
+      <c r="F14" s="30">
+        <v>11.6</v>
+      </c>
+      <c r="G14" s="30">
+        <v>18.7</v>
+      </c>
+      <c r="H14" s="30">
+        <v>16.8</v>
+      </c>
+      <c r="I14" s="30">
+        <v>25.7</v>
+      </c>
+      <c r="J14" s="30">
+        <v>33.6</v>
+      </c>
+      <c r="K14" s="30">
+        <v>38.6</v>
+      </c>
+      <c r="L14" s="30">
+        <v>41.8</v>
+      </c>
+      <c r="M14" s="30">
+        <v>45</v>
+      </c>
+      <c r="N14" s="30">
+        <v>40.5</v>
+      </c>
+      <c r="O14" s="30">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="P14" s="30">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>665</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="30">
+        <v>3.8</v>
+      </c>
+      <c r="F15" s="30">
+        <v>7.3</v>
+      </c>
+      <c r="G15" s="30">
+        <v>10.9</v>
+      </c>
+      <c r="H15" s="30">
+        <v>16.3</v>
+      </c>
+      <c r="I15" s="30">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J15" s="30">
+        <v>39.5</v>
+      </c>
+      <c r="K15" s="30">
+        <v>46</v>
+      </c>
+      <c r="L15" s="30">
+        <v>86.6</v>
+      </c>
+      <c r="M15" s="30">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="N15" s="30">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="O15" s="30">
+        <v>166</v>
+      </c>
+      <c r="P15" s="30">
+        <v>201.8</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>201.2</v>
+      </c>
+      <c r="R15" s="30">
+        <v>232.2</v>
+      </c>
+      <c r="S15" s="30">
+        <v>251.4</v>
+      </c>
+      <c r="T15" s="30">
+        <v>290.7</v>
+      </c>
+      <c r="U15" s="30">
+        <v>263.2</v>
+      </c>
+      <c r="V15" s="30">
+        <v>307.2</v>
+      </c>
+      <c r="W15" s="30">
+        <v>303.7</v>
+      </c>
+      <c r="X15" s="30">
+        <v>290.39999999999998</v>
+      </c>
+      <c r="Y15" s="30">
+        <v>248.2</v>
+      </c>
+      <c r="Z15" s="30">
+        <v>282.10000000000002</v>
+      </c>
+      <c r="AA15" s="30">
+        <v>246.6</v>
+      </c>
+      <c r="AB15" s="30">
+        <v>210.7</v>
+      </c>
+      <c r="AC15" s="30">
+        <v>192.8</v>
+      </c>
+      <c r="AD15" s="30">
+        <v>242.4</v>
+      </c>
+      <c r="AE15" s="30">
+        <v>191.5</v>
+      </c>
+      <c r="AF15" s="30">
+        <v>174.2</v>
+      </c>
+      <c r="AG15" s="30">
+        <v>193</v>
+      </c>
+      <c r="AH15" s="30">
+        <v>201.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:81" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>667</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="30">
+        <v>19.3</v>
+      </c>
+      <c r="F16" s="30">
+        <v>11.1</v>
+      </c>
+      <c r="G16" s="30">
+        <v>15.4</v>
+      </c>
+      <c r="H16" s="30">
+        <v>14.6</v>
+      </c>
+      <c r="I16" s="30">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="J16" s="30">
+        <v>40.1</v>
+      </c>
+      <c r="K16" s="30">
+        <v>47.5</v>
+      </c>
+      <c r="L16" s="30">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M16" s="30">
+        <v>74</v>
+      </c>
+      <c r="N16" s="30">
+        <v>103.2</v>
+      </c>
+      <c r="O16" s="30">
+        <v>127.2</v>
+      </c>
+      <c r="P16" s="30">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>151</v>
+      </c>
+      <c r="R16" s="30">
+        <v>147.19999999999999</v>
+      </c>
+      <c r="S16" s="30">
+        <v>166.9</v>
+      </c>
+      <c r="T16" s="30">
+        <v>193.2</v>
+      </c>
+      <c r="U16" s="30">
+        <v>203.6</v>
+      </c>
+      <c r="V16" s="30">
+        <v>231.9</v>
+      </c>
+      <c r="W16" s="30">
+        <v>240.7</v>
+      </c>
+      <c r="X16" s="30">
+        <v>268</v>
+      </c>
+      <c r="Y16" s="30">
+        <v>267.5</v>
+      </c>
+      <c r="Z16" s="30">
+        <v>262</v>
+      </c>
+      <c r="AA16" s="30">
+        <v>310.8</v>
+      </c>
+      <c r="AB16" s="30">
+        <v>313.60000000000002</v>
+      </c>
+      <c r="AC16" s="30">
+        <v>312</v>
+      </c>
+      <c r="AD16" s="30">
+        <v>356.5</v>
+      </c>
+      <c r="AE16" s="30">
+        <v>390.4</v>
+      </c>
+      <c r="AF16" s="30">
+        <v>431.9</v>
+      </c>
+      <c r="AG16" s="30">
+        <v>419.4</v>
+      </c>
+      <c r="AH16" s="30">
+        <v>461</v>
+      </c>
+      <c r="AI16" s="30">
+        <v>573.29999999999995</v>
+      </c>
+      <c r="AJ16" s="30">
+        <v>612.29999999999995</v>
+      </c>
+      <c r="AK16" s="30">
+        <v>577.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>669</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="29">
+        <v>22.6</v>
+      </c>
+      <c r="F17" s="29">
+        <v>4</v>
+      </c>
+      <c r="G17" s="29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H17" s="29">
+        <v>22.9</v>
+      </c>
+      <c r="I17" s="29">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="J17" s="29">
+        <v>47</v>
+      </c>
+      <c r="K17" s="29">
+        <v>56.3</v>
+      </c>
+      <c r="L17" s="29">
+        <v>71.7</v>
+      </c>
+      <c r="M17" s="29">
+        <v>83.5</v>
+      </c>
+      <c r="N17" s="29">
+        <v>90.9</v>
+      </c>
+      <c r="O17" s="29">
+        <v>115.8</v>
+      </c>
+      <c r="P17" s="29">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>109.7</v>
+      </c>
+      <c r="R17" s="29">
+        <v>120.6</v>
+      </c>
+      <c r="S17" s="29">
+        <v>115.9</v>
+      </c>
+      <c r="T17" s="29">
+        <v>137.4</v>
+      </c>
+      <c r="U17" s="29">
+        <v>124.9</v>
+      </c>
+      <c r="V17" s="29">
+        <v>130.6</v>
+      </c>
+      <c r="W17" s="29">
+        <v>119.3</v>
+      </c>
+      <c r="X17" s="29">
+        <v>133.6</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>131.5</v>
+      </c>
+      <c r="Z17" s="29">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="AA17" s="29">
+        <v>121.8</v>
+      </c>
+      <c r="AB17" s="29">
+        <v>128.80000000000001</v>
+      </c>
+      <c r="AC17" s="29">
+        <v>132.1</v>
+      </c>
+      <c r="AD17" s="29">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="AE17" s="29">
+        <v>131.5</v>
+      </c>
+      <c r="AF17" s="29">
+        <v>135.1</v>
+      </c>
+      <c r="AG17" s="29">
+        <v>127.7</v>
+      </c>
+      <c r="AH17" s="29">
+        <v>140.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{9012D80B-2607-45E2-B8A7-B66EE6B2AA8D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B40E2E-D38E-4848-BCC1-41D62ADD15A0}">
   <dimension ref="A1:AB9"/>
   <sheetViews>
@@ -12131,8 +13965,8 @@
     </row>
     <row r="8" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1">
-        <f>Main!B80+1</f>
-        <v>69</v>
+        <f>Main!B81+1</f>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>370</v>
@@ -12178,7 +14012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FCF0B2B-B27D-4DF2-80CD-010154B4E660}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:C11"/>
@@ -12274,16 +14108,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED149DB-8F62-4CB2-88E6-87DDBD9316FC}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I86"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H85" sqref="H85"/>
+      <selection pane="bottomRight" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12291,6 +14125,7 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -12415,471 +14250,604 @@
       <c r="B15" t="s">
         <v>505</v>
       </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="E15" t="s">
+        <v>634</v>
+      </c>
+      <c r="F15" t="s">
+        <v>635</v>
+      </c>
+      <c r="G15" t="s">
+        <v>640</v>
+      </c>
+      <c r="H15" s="13">
+        <v>44817</v>
+      </c>
+      <c r="I15" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C16">
+        <v>2018</v>
+      </c>
+      <c r="E16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F16" t="s">
+        <v>636</v>
+      </c>
+      <c r="G16" t="s">
+        <v>639</v>
+      </c>
+      <c r="H16" s="13">
+        <v>44362</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17">
+        <v>2018</v>
+      </c>
+      <c r="E17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F17" t="s">
+        <v>637</v>
+      </c>
+      <c r="G17" t="s">
+        <v>639</v>
+      </c>
+      <c r="H17" s="13">
+        <v>44173</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>505</v>
+      </c>
+      <c r="C18">
+        <v>2018</v>
+      </c>
+      <c r="E18" t="s">
+        <v>333</v>
+      </c>
+      <c r="F18" t="s">
+        <v>625</v>
+      </c>
+      <c r="G18" t="s">
+        <v>638</v>
+      </c>
+      <c r="H18" s="13">
+        <v>44118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>288</v>
-      </c>
-      <c r="C63">
-        <v>2019</v>
-      </c>
-      <c r="D63" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>296</v>
+        <v>288</v>
+      </c>
+      <c r="C66">
+        <v>2019</v>
+      </c>
+      <c r="D66" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>331</v>
-      </c>
-      <c r="C67">
-        <v>2019</v>
-      </c>
-      <c r="D67" t="s">
-        <v>339</v>
-      </c>
-      <c r="E67" t="s">
-        <v>333</v>
-      </c>
-      <c r="F67" t="s">
-        <v>337</v>
-      </c>
-      <c r="G67" t="s">
-        <v>336</v>
-      </c>
-      <c r="H67" s="13">
-        <v>44599</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>346</v>
-      </c>
-      <c r="E68" t="s">
-        <v>333</v>
-      </c>
-      <c r="F68" t="s">
-        <v>347</v>
+        <v>293</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>349</v>
-      </c>
-      <c r="I70" t="s">
-        <v>350</v>
+        <v>331</v>
+      </c>
+      <c r="C70">
+        <v>2019</v>
+      </c>
+      <c r="D70" t="s">
+        <v>339</v>
+      </c>
+      <c r="E70" t="s">
+        <v>333</v>
+      </c>
+      <c r="F70" t="s">
+        <v>337</v>
+      </c>
+      <c r="G70" t="s">
+        <v>336</v>
+      </c>
+      <c r="H70" s="13">
+        <v>44599</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
-        <v>394</v>
+        <v>346</v>
+      </c>
+      <c r="E71" t="s">
+        <v>333</v>
+      </c>
+      <c r="F71" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
-        <v>397</v>
-      </c>
-      <c r="C72" t="s">
-        <v>398</v>
-      </c>
-      <c r="E72" t="s">
-        <v>333</v>
-      </c>
-      <c r="F72" t="s">
-        <v>399</v>
-      </c>
-      <c r="H72" s="13">
-        <v>43466</v>
-      </c>
-      <c r="I72" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
-        <v>401</v>
+        <v>349</v>
+      </c>
+      <c r="I73" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
-        <v>402</v>
-      </c>
-      <c r="E74" t="s">
-        <v>403</v>
-      </c>
-      <c r="F74" t="s">
-        <v>404</v>
-      </c>
-      <c r="I74" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
-        <v>409</v>
+        <v>397</v>
+      </c>
+      <c r="C75" t="s">
+        <v>398</v>
       </c>
       <c r="E75" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="F75" t="s">
-        <v>410</v>
+        <v>399</v>
+      </c>
+      <c r="H75" s="13">
+        <v>43466</v>
+      </c>
+      <c r="I75" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>431</v>
+        <v>402</v>
+      </c>
+      <c r="E77" t="s">
+        <v>403</v>
+      </c>
+      <c r="F77" t="s">
+        <v>404</v>
+      </c>
+      <c r="I77" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>433</v>
+        <v>409</v>
+      </c>
+      <c r="E78" t="s">
+        <v>403</v>
+      </c>
+      <c r="F78" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>438</v>
-      </c>
-      <c r="I79" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>457</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
-        <v>521</v>
+        <v>433</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
-        <v>537</v>
+        <v>438</v>
       </c>
       <c r="I82" t="s">
-        <v>538</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
-        <v>541</v>
-      </c>
-      <c r="I83" t="s">
-        <v>538</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
-        <v>627</v>
-      </c>
-      <c r="C84">
-        <v>2018</v>
-      </c>
-      <c r="D84" t="s">
-        <v>630</v>
-      </c>
-      <c r="E84" t="s">
-        <v>628</v>
-      </c>
-      <c r="F84" t="s">
-        <v>629</v>
-      </c>
-      <c r="H84" s="13">
-        <v>43251</v>
+        <v>521</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>627</v>
-      </c>
-      <c r="C85">
-        <v>2018</v>
-      </c>
-      <c r="D85" t="s">
-        <v>630</v>
-      </c>
-      <c r="E85" t="s">
-        <v>626</v>
-      </c>
-      <c r="F85" t="s">
-        <v>625</v>
+        <v>537</v>
+      </c>
+      <c r="I85" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
+        <v>541</v>
+      </c>
+      <c r="I86" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
         <v>627</v>
       </c>
-      <c r="C86">
+      <c r="C87">
         <v>2018</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>630</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E87" t="s">
+        <v>628</v>
+      </c>
+      <c r="F87" t="s">
+        <v>629</v>
+      </c>
+      <c r="H87" s="13">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>627</v>
+      </c>
+      <c r="C88">
+        <v>2018</v>
+      </c>
+      <c r="D88" t="s">
+        <v>630</v>
+      </c>
+      <c r="E88" t="s">
+        <v>626</v>
+      </c>
+      <c r="F88" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>627</v>
+      </c>
+      <c r="C89">
+        <v>2018</v>
+      </c>
+      <c r="D89" t="s">
+        <v>630</v>
+      </c>
+      <c r="E89" t="s">
         <v>623</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F89" t="s">
         <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>631</v>
+      </c>
+      <c r="I90" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>641</v>
+      </c>
+      <c r="E91" t="s">
+        <v>623</v>
+      </c>
+      <c r="F91" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>641</v>
+      </c>
+      <c r="E92" t="s">
+        <v>333</v>
+      </c>
+      <c r="F92" t="s">
+        <v>642</v>
+      </c>
+      <c r="G92" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>645</v>
+      </c>
+      <c r="E93" t="s">
+        <v>403</v>
+      </c>
+      <c r="F93" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>645</v>
+      </c>
+      <c r="E94" t="s">
+        <v>634</v>
+      </c>
+      <c r="F94" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -12890,7 +14858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F650EA-F83A-4483-B12E-DBBE9EC4FA2A}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D18"/>
